--- a/JupyterNotebooks/AvgHW/Gamma1F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00747843794116</v>
+        <v>0.9828076950018613</v>
       </c>
       <c r="D3">
+        <v>1.002632565798975</v>
+      </c>
+      <c r="E3">
         <v>0.9828076950018613</v>
-      </c>
-      <c r="E3">
-        <v>1.002632565798975</v>
       </c>
       <c r="F3">
         <v>1.00747843794116</v>
       </c>
       <c r="G3">
+        <v>0.9914306405156864</v>
+      </c>
+      <c r="H3">
         <v>1.00637518371409</v>
       </c>
-      <c r="H3">
-        <v>0.9914306405156864</v>
-      </c>
       <c r="I3">
+        <v>1.00747843794116</v>
+      </c>
+      <c r="J3">
         <v>1.004045355875195</v>
-      </c>
-      <c r="J3">
-        <v>0.9828076950018613</v>
       </c>
       <c r="K3">
         <v>1.00747843794116</v>
@@ -788,7 +680,7 @@
         <v>0.9991283131411614</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.014527692162892</v>
+        <v>0.9667475620779831</v>
       </c>
       <c r="D4">
+        <v>1.005051875430808</v>
+      </c>
+      <c r="E4">
         <v>0.9667475620779831</v>
-      </c>
-      <c r="E4">
-        <v>1.005051875430808</v>
       </c>
       <c r="F4">
         <v>1.014527692162892</v>
       </c>
       <c r="G4">
+        <v>0.9834561913201307</v>
+      </c>
+      <c r="H4">
         <v>1.012209786638583</v>
       </c>
-      <c r="H4">
-        <v>0.9834561913201307</v>
-      </c>
       <c r="I4">
+        <v>1.014527692162892</v>
+      </c>
+      <c r="J4">
         <v>1.007814504241806</v>
-      </c>
-      <c r="J4">
-        <v>0.9667475620779831</v>
       </c>
       <c r="K4">
         <v>1.014527692162892</v>
@@ -850,7 +742,7 @@
         <v>0.9983012686453673</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,31 +750,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.027006427363721</v>
+        <v>0.9368140307377395</v>
       </c>
       <c r="D5">
+        <v>1.009943476324519</v>
+      </c>
+      <c r="E5">
         <v>0.9368140307377395</v>
       </c>
-      <c r="E5">
-        <v>1.009943476324519</v>
-      </c>
       <c r="F5">
-        <v>1.027006427363721</v>
+        <v>1.027006427363722</v>
       </c>
       <c r="G5">
+        <v>0.9683209389776209</v>
+      </c>
+      <c r="H5">
         <v>1.02432197939809</v>
       </c>
-      <c r="H5">
-        <v>0.9683209389776209</v>
-      </c>
       <c r="I5">
+        <v>1.027006427363722</v>
+      </c>
+      <c r="J5">
         <v>1.014918099658588</v>
       </c>
-      <c r="J5">
-        <v>0.9368140307377395</v>
-      </c>
       <c r="K5">
-        <v>1.027006427363721</v>
+        <v>1.027006427363722</v>
       </c>
       <c r="L5">
         <v>1.009943476324519</v>
@@ -897,10 +789,10 @@
         <v>0.9716928153466263</v>
       </c>
       <c r="P5">
-        <v>0.9912546448086599</v>
+        <v>0.99125464480866</v>
       </c>
       <c r="Q5">
-        <v>0.9912546448086599</v>
+        <v>0.99125464480866</v>
       </c>
       <c r="R5">
         <v>1.000192590447425</v>
@@ -909,10 +801,10 @@
         <v>1.000192590447425</v>
       </c>
       <c r="T5">
-        <v>0.9968874920767131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.9968874920767132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.03918612225265</v>
+        <v>0.9075776191288629</v>
       </c>
       <c r="D6">
+        <v>1.014752681483102</v>
+      </c>
+      <c r="E6">
         <v>0.9075776191288629</v>
-      </c>
-      <c r="E6">
-        <v>1.014752681483102</v>
       </c>
       <c r="F6">
         <v>1.03918612225265</v>
       </c>
       <c r="G6">
+        <v>0.9535288166941418</v>
+      </c>
+      <c r="H6">
         <v>1.036050969689349</v>
       </c>
-      <c r="H6">
-        <v>0.953528816694142</v>
-      </c>
       <c r="I6">
+        <v>1.03918612225265</v>
+      </c>
+      <c r="J6">
         <v>1.021876146192263</v>
-      </c>
-      <c r="J6">
-        <v>0.9075776191288629</v>
       </c>
       <c r="K6">
         <v>1.03918612225265</v>
@@ -950,19 +842,19 @@
         <v>1.014752681483102</v>
       </c>
       <c r="M6">
-        <v>0.9611651503059825</v>
+        <v>0.9611651503059826</v>
       </c>
       <c r="N6">
-        <v>0.9611651503059825</v>
+        <v>0.9611651503059826</v>
       </c>
       <c r="O6">
         <v>0.9586197057687024</v>
       </c>
       <c r="P6">
-        <v>0.9871721409548715</v>
+        <v>0.9871721409548716</v>
       </c>
       <c r="Q6">
-        <v>0.9871721409548715</v>
+        <v>0.9871721409548716</v>
       </c>
       <c r="R6">
         <v>1.000175636279316</v>
@@ -971,10 +863,10 @@
         <v>1.000175636279316</v>
       </c>
       <c r="T6">
-        <v>0.9954953925733947</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9954953925733948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000022080053886</v>
+        <v>0.9990947339819851</v>
       </c>
       <c r="D7">
-        <v>0.9990947339819847</v>
+        <v>1.000344542416014</v>
       </c>
       <c r="E7">
-        <v>1.000344542416014</v>
+        <v>0.9990947339819851</v>
       </c>
       <c r="F7">
         <v>1.000022080053886</v>
       </c>
       <c r="G7">
+        <v>0.9994086524718904</v>
+      </c>
+      <c r="H7">
         <v>1.001026611225158</v>
       </c>
-      <c r="H7">
-        <v>0.9994086524718904</v>
-      </c>
       <c r="I7">
-        <v>1.000250529133266</v>
+        <v>1.000022080053886</v>
       </c>
       <c r="J7">
-        <v>0.9990947339819847</v>
+        <v>1.000250529133265</v>
       </c>
       <c r="K7">
         <v>1.000022080053886</v>
@@ -1012,31 +904,31 @@
         <v>1.000344542416014</v>
       </c>
       <c r="M7">
-        <v>0.9997196381989991</v>
+        <v>0.9997196381989993</v>
       </c>
       <c r="N7">
-        <v>0.9997196381989991</v>
+        <v>0.9997196381989993</v>
       </c>
       <c r="O7">
-        <v>0.9996159762899629</v>
+        <v>0.999615976289963</v>
       </c>
       <c r="P7">
-        <v>0.9998204521506281</v>
+        <v>0.9998204521506283</v>
       </c>
       <c r="Q7">
-        <v>0.9998204521506281</v>
+        <v>0.9998204521506283</v>
       </c>
       <c r="R7">
-        <v>0.9998708591264425</v>
+        <v>0.9998708591264428</v>
       </c>
       <c r="S7">
-        <v>0.9998708591264425</v>
+        <v>0.9998708591264428</v>
       </c>
       <c r="T7">
-        <v>1.000024524880366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>1.000024524880367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000168869761199</v>
+        <v>0.9976297943887529</v>
       </c>
       <c r="D8">
-        <v>0.9976297943887531</v>
+        <v>1.00084192315794</v>
       </c>
       <c r="E8">
-        <v>1.00084192315794</v>
+        <v>0.9976297943887529</v>
       </c>
       <c r="F8">
         <v>1.000168869761199</v>
       </c>
       <c r="G8">
+        <v>0.9984883042302624</v>
+      </c>
+      <c r="H8">
         <v>1.002496865672313</v>
       </c>
-      <c r="H8">
-        <v>0.9984883042302625</v>
-      </c>
       <c r="I8">
-        <v>1.000645696746396</v>
+        <v>1.000168869761199</v>
       </c>
       <c r="J8">
-        <v>0.9976297943887531</v>
+        <v>1.000645696746397</v>
       </c>
       <c r="K8">
         <v>1.000168869761199</v>
@@ -1074,10 +966,10 @@
         <v>1.00084192315794</v>
       </c>
       <c r="M8">
-        <v>0.9992358587733468</v>
+        <v>0.9992358587733466</v>
       </c>
       <c r="N8">
-        <v>0.9992358587733468</v>
+        <v>0.9992358587733466</v>
       </c>
       <c r="O8">
         <v>0.998986673925652</v>
@@ -1098,7 +990,7 @@
         <v>1.000045242326144</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000493130829909</v>
+        <v>0.9965250504568445</v>
       </c>
       <c r="D9">
+        <v>1.001098567488619</v>
+      </c>
+      <c r="E9">
         <v>0.9965250504568445</v>
-      </c>
-      <c r="E9">
-        <v>1.001098567488619</v>
       </c>
       <c r="F9">
         <v>1.000493130829909</v>
       </c>
       <c r="G9">
+        <v>0.9978738001383012</v>
+      </c>
+      <c r="H9">
         <v>1.003213418684433</v>
       </c>
-      <c r="H9">
-        <v>0.997873800138301</v>
-      </c>
       <c r="I9">
+        <v>1.000493130829909</v>
+      </c>
+      <c r="J9">
         <v>1.000922054478929</v>
-      </c>
-      <c r="J9">
-        <v>0.9965250504568445</v>
       </c>
       <c r="K9">
         <v>1.000493130829909</v>
@@ -1160,7 +1052,7 @@
         <v>1.000021003679506</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000737923225331</v>
+        <v>0.9927193520252228</v>
       </c>
       <c r="D10">
+        <v>1.002467839769988</v>
+      </c>
+      <c r="E10">
         <v>0.9927193520252228</v>
-      </c>
-      <c r="E10">
-        <v>1.002467839769988</v>
       </c>
       <c r="F10">
         <v>1.000737923225331</v>
       </c>
       <c r="G10">
+        <v>0.9954270360955371</v>
+      </c>
+      <c r="H10">
         <v>1.007297409086454</v>
       </c>
-      <c r="H10">
-        <v>0.9954270360955371</v>
-      </c>
       <c r="I10">
+        <v>1.000737923225331</v>
+      </c>
+      <c r="J10">
         <v>1.001963492161786</v>
-      </c>
-      <c r="J10">
-        <v>0.9927193520252228</v>
       </c>
       <c r="K10">
         <v>1.000737923225331</v>
@@ -1222,7 +1114,7 @@
         <v>1.000102175394053</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001880697664057</v>
+        <v>0.9875487216009832</v>
       </c>
       <c r="D11">
+        <v>1.003883880684114</v>
+      </c>
+      <c r="E11">
         <v>0.9875487216009832</v>
-      </c>
-      <c r="E11">
-        <v>1.003883880684114</v>
       </c>
       <c r="F11">
         <v>1.001880697664057</v>
       </c>
       <c r="G11">
+        <v>0.9923886633923003</v>
+      </c>
+      <c r="H11">
         <v>1.011399585341981</v>
       </c>
-      <c r="H11">
-        <v>0.9923886633923003</v>
-      </c>
       <c r="I11">
+        <v>1.001880697664057</v>
+      </c>
+      <c r="J11">
         <v>1.003299861228188</v>
-      </c>
-      <c r="J11">
-        <v>0.9875487216009832</v>
       </c>
       <c r="K11">
         <v>1.001880697664057</v>
@@ -1284,7 +1176,7 @@
         <v>1.000066901651937</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.034301150042558</v>
+        <v>1.082245204613516</v>
       </c>
       <c r="D12">
+        <v>0.9486878086816647</v>
+      </c>
+      <c r="E12">
         <v>1.082245204613516</v>
-      </c>
-      <c r="E12">
-        <v>0.9486878086816647</v>
       </c>
       <c r="F12">
         <v>1.034301150042558</v>
       </c>
       <c r="G12">
+        <v>1.065714757544415</v>
+      </c>
+      <c r="H12">
         <v>0.8459591511100624</v>
       </c>
-      <c r="H12">
-        <v>1.065714757544415</v>
-      </c>
       <c r="I12">
+        <v>1.034301150042558</v>
+      </c>
+      <c r="J12">
         <v>0.973647973206703</v>
-      </c>
-      <c r="J12">
-        <v>1.082245204613516</v>
       </c>
       <c r="K12">
         <v>1.034301150042558</v>
@@ -1346,7 +1238,7 @@
         <v>0.9917593408664866</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9645566276542581</v>
+        <v>1.050095508034032</v>
       </c>
       <c r="D13">
-        <v>1.050095508034033</v>
+        <v>1.000643325205356</v>
       </c>
       <c r="E13">
-        <v>1.000643325205356</v>
+        <v>1.050095508034032</v>
       </c>
       <c r="F13">
         <v>0.9645566276542581</v>
       </c>
       <c r="G13">
+        <v>1.018276206250649</v>
+      </c>
+      <c r="H13">
         <v>1.009428476563701</v>
       </c>
-      <c r="H13">
-        <v>1.018276206250649</v>
-      </c>
       <c r="I13">
-        <v>0.9901224210328136</v>
+        <v>0.9645566276542581</v>
       </c>
       <c r="J13">
-        <v>1.050095508034033</v>
+        <v>0.9901224210328134</v>
       </c>
       <c r="K13">
         <v>0.9645566276542581</v>
@@ -1399,16 +1291,16 @@
         <v>1.005098486964549</v>
       </c>
       <c r="R13">
-        <v>0.9949630221369761</v>
+        <v>0.9949630221369763</v>
       </c>
       <c r="S13">
-        <v>0.9949630221369761</v>
+        <v>0.9949630221369763</v>
       </c>
       <c r="T13">
-        <v>1.005520427456801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.005520427456802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.032618269452672</v>
+        <v>1.087595502107483</v>
       </c>
       <c r="D14">
+        <v>0.9485544529570193</v>
+      </c>
+      <c r="E14">
         <v>1.087595502107483</v>
-      </c>
-      <c r="E14">
-        <v>0.9485544529570193</v>
       </c>
       <c r="F14">
         <v>1.032618269452672</v>
       </c>
       <c r="G14">
+        <v>1.065495944084504</v>
+      </c>
+      <c r="H14">
         <v>0.8506261723366549</v>
       </c>
-      <c r="H14">
-        <v>1.065495944084504</v>
-      </c>
       <c r="I14">
+        <v>1.032618269452672</v>
+      </c>
+      <c r="J14">
         <v>0.9730628495404513</v>
-      </c>
-      <c r="J14">
-        <v>1.087595502107483</v>
       </c>
       <c r="K14">
         <v>1.032618269452672</v>
@@ -1470,7 +1362,7 @@
         <v>0.9929921984131306</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9638230075216269</v>
+        <v>1.045180379203713</v>
       </c>
       <c r="D15">
+        <v>1.001623181772805</v>
+      </c>
+      <c r="E15">
         <v>1.045180379203713</v>
-      </c>
-      <c r="E15">
-        <v>1.001623181772805</v>
       </c>
       <c r="F15">
         <v>0.9638230075216269</v>
       </c>
       <c r="G15">
+        <v>1.018693201383843</v>
+      </c>
+      <c r="H15">
         <v>1.006931797808952</v>
       </c>
-      <c r="H15">
-        <v>1.018693201383843</v>
-      </c>
       <c r="I15">
+        <v>0.9638230075216269</v>
+      </c>
+      <c r="J15">
         <v>0.9906027232314597</v>
-      </c>
-      <c r="J15">
-        <v>1.045180379203713</v>
       </c>
       <c r="K15">
         <v>0.9638230075216269</v>
@@ -1529,10 +1421,10 @@
         <v>0.9936123940049429</v>
       </c>
       <c r="T15">
-        <v>1.004475715153734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>1.004475715153733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9989675284533579</v>
+        <v>0.6695998222534102</v>
       </c>
       <c r="D16">
-        <v>1.00041789579996</v>
+        <v>1.054304500261289</v>
       </c>
       <c r="E16">
-        <v>1.000374167647163</v>
+        <v>0.6695998222534102</v>
       </c>
       <c r="F16">
-        <v>0.9989675284533579</v>
+        <v>1.136641273974179</v>
       </c>
       <c r="G16">
-        <v>1.001078373919358</v>
+        <v>0.8332658279616537</v>
       </c>
       <c r="H16">
-        <v>1.000009991464722</v>
+        <v>1.134137759274169</v>
       </c>
       <c r="I16">
-        <v>0.9999640677626667</v>
+        <v>1.136641273974179</v>
       </c>
       <c r="J16">
-        <v>1.00041789579996</v>
+        <v>1.078309394438676</v>
       </c>
       <c r="K16">
-        <v>0.9989675284533579</v>
+        <v>1.136641273974179</v>
       </c>
       <c r="L16">
-        <v>1.000374167647163</v>
+        <v>1.054304500261289</v>
       </c>
       <c r="M16">
-        <v>1.000396031723561</v>
+        <v>0.8619521612573495</v>
       </c>
       <c r="N16">
-        <v>1.000396031723561</v>
+        <v>0.8619521612573495</v>
       </c>
       <c r="O16">
-        <v>1.000267351637281</v>
+        <v>0.8523900501587843</v>
       </c>
       <c r="P16">
-        <v>0.9999198639668269</v>
+        <v>0.953515198829626</v>
       </c>
       <c r="Q16">
-        <v>0.9999198639668269</v>
+        <v>0.953515198829626</v>
       </c>
       <c r="R16">
-        <v>0.9996817800884596</v>
+        <v>0.9992967176157641</v>
       </c>
       <c r="S16">
-        <v>0.9996817800884596</v>
+        <v>0.9992967176157641</v>
       </c>
       <c r="T16">
-        <v>1.000135337507871</v>
+        <v>0.9843764296938963</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001373793755154</v>
+        <v>0.7406635962835486</v>
       </c>
       <c r="D17">
-        <v>0.9982611824302386</v>
+        <v>1.05020035630943</v>
       </c>
       <c r="E17">
-        <v>0.9999602683597255</v>
+        <v>0.7406635962835486</v>
       </c>
       <c r="F17">
-        <v>1.001373793755154</v>
+        <v>1.093417593196337</v>
       </c>
       <c r="G17">
-        <v>0.9999296263109904</v>
+        <v>0.8642716495948908</v>
       </c>
       <c r="H17">
-        <v>0.9992202747913022</v>
+        <v>1.129934169602847</v>
       </c>
       <c r="I17">
-        <v>1.000372374077876</v>
+        <v>1.093417593196337</v>
       </c>
       <c r="J17">
-        <v>0.9982611824302386</v>
+        <v>1.062800136947084</v>
       </c>
       <c r="K17">
-        <v>1.001373793755154</v>
+        <v>1.093417593196337</v>
       </c>
       <c r="L17">
-        <v>0.9999602683597255</v>
+        <v>1.05020035630943</v>
       </c>
       <c r="M17">
-        <v>0.999110725394982</v>
+        <v>0.8954319762964894</v>
       </c>
       <c r="N17">
-        <v>0.999110725394982</v>
+        <v>0.8954319762964894</v>
       </c>
       <c r="O17">
-        <v>0.9991472418604221</v>
+        <v>0.8850452007292899</v>
       </c>
       <c r="P17">
-        <v>0.9998650815150393</v>
+        <v>0.9614271819297718</v>
       </c>
       <c r="Q17">
-        <v>0.9998650815150393</v>
+        <v>0.9614271819297718</v>
       </c>
       <c r="R17">
-        <v>1.000242259575068</v>
+        <v>0.9944247847464132</v>
       </c>
       <c r="S17">
-        <v>1.000242259575068</v>
+        <v>0.9944247847464132</v>
       </c>
       <c r="T17">
-        <v>0.9998529199542144</v>
+        <v>0.9902145836556896</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9997458681877119</v>
+        <v>0.8829454891533665</v>
       </c>
       <c r="D18">
-        <v>0.9957936760272205</v>
+        <v>1.041623321169923</v>
       </c>
       <c r="E18">
-        <v>1.001702204574565</v>
+        <v>0.8829454891533665</v>
       </c>
       <c r="F18">
-        <v>0.9997458681877119</v>
+        <v>1.00753628791721</v>
       </c>
       <c r="G18">
-        <v>1.004424088542883</v>
+        <v>0.9265776654959232</v>
       </c>
       <c r="H18">
-        <v>0.9974731168486984</v>
+        <v>1.12035360180717</v>
       </c>
       <c r="I18">
-        <v>1.001131844163525</v>
+        <v>1.00753628791721</v>
       </c>
       <c r="J18">
-        <v>0.9957936760272205</v>
+        <v>1.031685413403651</v>
       </c>
       <c r="K18">
-        <v>0.9997458681877119</v>
+        <v>1.00753628791721</v>
       </c>
       <c r="L18">
-        <v>1.001702204574565</v>
+        <v>1.041623321169923</v>
       </c>
       <c r="M18">
-        <v>0.9987479403008925</v>
+        <v>0.9622844051616448</v>
       </c>
       <c r="N18">
-        <v>0.9987479403008925</v>
+        <v>0.9622844051616448</v>
       </c>
       <c r="O18">
-        <v>0.9983229991501612</v>
+        <v>0.9503821586064043</v>
       </c>
       <c r="P18">
-        <v>0.9990805829298323</v>
+        <v>0.9773683660801668</v>
       </c>
       <c r="Q18">
-        <v>0.9990805829298323</v>
+        <v>0.9773683660801668</v>
       </c>
       <c r="R18">
-        <v>0.9992469042443022</v>
+        <v>0.9849103465394276</v>
       </c>
       <c r="S18">
-        <v>0.9992469042443022</v>
+        <v>0.9849103465394276</v>
       </c>
       <c r="T18">
-        <v>1.000045133057434</v>
+        <v>1.001786963157874</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1618,306 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8786526657425322</v>
+      </c>
+      <c r="D19">
+        <v>1.047877441811972</v>
+      </c>
+      <c r="E19">
+        <v>0.8786526657425322</v>
+      </c>
+      <c r="F19">
+        <v>0.9997877353465963</v>
+      </c>
+      <c r="G19">
+        <v>0.9200843072324426</v>
+      </c>
+      <c r="H19">
+        <v>1.141505721288986</v>
+      </c>
+      <c r="I19">
+        <v>0.9997877353465963</v>
+      </c>
+      <c r="J19">
+        <v>1.033857122200281</v>
+      </c>
+      <c r="K19">
+        <v>0.9997877353465963</v>
+      </c>
+      <c r="L19">
+        <v>1.047877441811972</v>
+      </c>
+      <c r="M19">
+        <v>0.963265053777252</v>
+      </c>
+      <c r="N19">
+        <v>0.963265053777252</v>
+      </c>
+      <c r="O19">
+        <v>0.9488714715956489</v>
+      </c>
+      <c r="P19">
+        <v>0.9754392809670334</v>
+      </c>
+      <c r="Q19">
+        <v>0.9754392809670334</v>
+      </c>
+      <c r="R19">
+        <v>0.9815263945619241</v>
+      </c>
+      <c r="S19">
+        <v>0.9815263945619241</v>
+      </c>
+      <c r="T19">
+        <v>1.003627498937135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.00041789579996</v>
+      </c>
+      <c r="D20">
+        <v>1.000374167647163</v>
+      </c>
+      <c r="E20">
+        <v>1.00041789579996</v>
+      </c>
+      <c r="F20">
+        <v>0.9989675284533579</v>
+      </c>
+      <c r="G20">
+        <v>1.000009991464722</v>
+      </c>
+      <c r="H20">
+        <v>1.001078373919358</v>
+      </c>
+      <c r="I20">
+        <v>0.9989675284533579</v>
+      </c>
+      <c r="J20">
+        <v>0.9999640677626667</v>
+      </c>
+      <c r="K20">
+        <v>0.9989675284533579</v>
+      </c>
+      <c r="L20">
+        <v>1.000374167647163</v>
+      </c>
+      <c r="M20">
+        <v>1.000396031723561</v>
+      </c>
+      <c r="N20">
+        <v>1.000396031723561</v>
+      </c>
+      <c r="O20">
+        <v>1.000267351637281</v>
+      </c>
+      <c r="P20">
+        <v>0.9999198639668269</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999198639668269</v>
+      </c>
+      <c r="R20">
+        <v>0.9996817800884596</v>
+      </c>
+      <c r="S20">
+        <v>0.9996817800884596</v>
+      </c>
+      <c r="T20">
+        <v>1.000135337507871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9982611824302384</v>
+      </c>
+      <c r="D21">
+        <v>0.9999602683597255</v>
+      </c>
+      <c r="E21">
+        <v>0.9982611824302384</v>
+      </c>
+      <c r="F21">
+        <v>1.001373793755154</v>
+      </c>
+      <c r="G21">
+        <v>0.9992202747913022</v>
+      </c>
+      <c r="H21">
+        <v>0.9999296263109907</v>
+      </c>
+      <c r="I21">
+        <v>1.001373793755154</v>
+      </c>
+      <c r="J21">
+        <v>1.000372374077876</v>
+      </c>
+      <c r="K21">
+        <v>1.001373793755154</v>
+      </c>
+      <c r="L21">
+        <v>0.9999602683597255</v>
+      </c>
+      <c r="M21">
+        <v>0.999110725394982</v>
+      </c>
+      <c r="N21">
+        <v>0.999110725394982</v>
+      </c>
+      <c r="O21">
+        <v>0.9991472418604221</v>
+      </c>
+      <c r="P21">
+        <v>0.9998650815150393</v>
+      </c>
+      <c r="Q21">
+        <v>0.9998650815150393</v>
+      </c>
+      <c r="R21">
+        <v>1.000242259575068</v>
+      </c>
+      <c r="S21">
+        <v>1.000242259575068</v>
+      </c>
+      <c r="T21">
+        <v>0.9998529199542144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9957936760272201</v>
+      </c>
+      <c r="D22">
+        <v>1.001702204574565</v>
+      </c>
+      <c r="E22">
+        <v>0.9957936760272201</v>
+      </c>
+      <c r="F22">
+        <v>0.9997458681877119</v>
+      </c>
+      <c r="G22">
+        <v>0.9974731168486984</v>
+      </c>
+      <c r="H22">
+        <v>1.004424088542883</v>
+      </c>
+      <c r="I22">
+        <v>0.9997458681877119</v>
+      </c>
+      <c r="J22">
+        <v>1.001131844163525</v>
+      </c>
+      <c r="K22">
+        <v>0.9997458681877119</v>
+      </c>
+      <c r="L22">
+        <v>1.001702204574565</v>
+      </c>
+      <c r="M22">
+        <v>0.9987479403008924</v>
+      </c>
+      <c r="N22">
+        <v>0.9987479403008924</v>
+      </c>
+      <c r="O22">
+        <v>0.9983229991501611</v>
+      </c>
+      <c r="P22">
+        <v>0.9990805829298323</v>
+      </c>
+      <c r="Q22">
+        <v>0.9990805829298323</v>
+      </c>
+      <c r="R22">
+        <v>0.9992469042443022</v>
+      </c>
+      <c r="S22">
+        <v>0.9992469042443022</v>
+      </c>
+      <c r="T22">
+        <v>1.000045133057434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9908877592673322</v>
+      </c>
+      <c r="D23">
+        <v>1.005007835491542</v>
+      </c>
+      <c r="E23">
+        <v>0.9908877592673322</v>
+      </c>
+      <c r="F23">
         <v>0.9967225691484282</v>
       </c>
-      <c r="D19">
-        <v>0.9908877592673322</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.9942063215985203</v>
+      </c>
+      <c r="H23">
+        <v>1.012631862172997</v>
+      </c>
+      <c r="I23">
+        <v>0.9967225691484282</v>
+      </c>
+      <c r="J23">
+        <v>1.002592305491321</v>
+      </c>
+      <c r="K23">
+        <v>0.9967225691484282</v>
+      </c>
+      <c r="L23">
         <v>1.005007835491542</v>
       </c>
-      <c r="F19">
-        <v>0.9967225691484282</v>
-      </c>
-      <c r="G19">
-        <v>1.012631862172997</v>
-      </c>
-      <c r="H19">
-        <v>0.9942063215985203</v>
-      </c>
-      <c r="I19">
-        <v>1.002592305491322</v>
-      </c>
-      <c r="J19">
-        <v>0.9908877592673322</v>
-      </c>
-      <c r="K19">
-        <v>0.9967225691484282</v>
-      </c>
-      <c r="L19">
-        <v>1.005007835491542</v>
-      </c>
-      <c r="M19">
-        <v>0.9979477973794371</v>
-      </c>
-      <c r="N19">
-        <v>0.9979477973794371</v>
-      </c>
-      <c r="O19">
-        <v>0.9967006387857982</v>
-      </c>
-      <c r="P19">
+      <c r="M23">
+        <v>0.997947797379437</v>
+      </c>
+      <c r="N23">
+        <v>0.997947797379437</v>
+      </c>
+      <c r="O23">
+        <v>0.9967006387857981</v>
+      </c>
+      <c r="P23">
         <v>0.9975393879691007</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9975393879691007</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9973351832639326</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9973351832639326</v>
       </c>
-      <c r="T19">
-        <v>1.000341442195024</v>
+      <c r="T23">
+        <v>1.000341442195023</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9828076950018613</v>
+        <v>0.8606846911887593</v>
       </c>
       <c r="D3">
-        <v>1.002632565798975</v>
+        <v>1.048857218544666</v>
       </c>
       <c r="E3">
-        <v>0.9828076950018613</v>
+        <v>0.8606846911887593</v>
       </c>
       <c r="F3">
-        <v>1.00747843794116</v>
+        <v>1.010209171577811</v>
       </c>
       <c r="G3">
-        <v>0.9914306405156864</v>
+        <v>0.9130019634221932</v>
       </c>
       <c r="H3">
-        <v>1.00637518371409</v>
+        <v>1.141253680727659</v>
       </c>
       <c r="I3">
-        <v>1.00747843794116</v>
+        <v>1.010209171577811</v>
       </c>
       <c r="J3">
-        <v>1.004045355875195</v>
+        <v>1.037589569416426</v>
       </c>
       <c r="K3">
-        <v>1.00747843794116</v>
+        <v>1.010209171577811</v>
       </c>
       <c r="L3">
-        <v>1.002632565798975</v>
+        <v>1.048857218544666</v>
       </c>
       <c r="M3">
-        <v>0.9927201304004181</v>
+        <v>0.9547709548667125</v>
       </c>
       <c r="N3">
-        <v>0.9927201304004181</v>
+        <v>0.9547709548667125</v>
       </c>
       <c r="O3">
-        <v>0.9922903004388409</v>
+        <v>0.9408479577185394</v>
       </c>
       <c r="P3">
-        <v>0.997639566247332</v>
+        <v>0.9732503604370786</v>
       </c>
       <c r="Q3">
-        <v>0.9976395662473317</v>
+        <v>0.9732503604370786</v>
       </c>
       <c r="R3">
-        <v>1.000099284170789</v>
+        <v>0.9824900632222616</v>
       </c>
       <c r="S3">
-        <v>1.000099284170789</v>
+        <v>0.9824900632222616</v>
       </c>
       <c r="T3">
-        <v>0.9991283131411614</v>
+        <v>1.001932715812919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9667475620779831</v>
+        <v>0.8731125855972731</v>
       </c>
       <c r="D4">
-        <v>1.005051875430808</v>
+        <v>1.045081502281956</v>
       </c>
       <c r="E4">
-        <v>0.9667475620779831</v>
+        <v>0.8731125855972731</v>
       </c>
       <c r="F4">
-        <v>1.014527692162892</v>
+        <v>1.008222793058145</v>
       </c>
       <c r="G4">
-        <v>0.9834561913201307</v>
+        <v>0.9204327774897473</v>
       </c>
       <c r="H4">
-        <v>1.012209786638583</v>
+        <v>1.130399302827062</v>
       </c>
       <c r="I4">
-        <v>1.014527692162892</v>
+        <v>1.008222793058145</v>
       </c>
       <c r="J4">
-        <v>1.007814504241806</v>
+        <v>1.034335525171452</v>
       </c>
       <c r="K4">
-        <v>1.014527692162892</v>
+        <v>1.008222793058145</v>
       </c>
       <c r="L4">
-        <v>1.005051875430808</v>
+        <v>1.045081502281956</v>
       </c>
       <c r="M4">
-        <v>0.9858997187543955</v>
+        <v>0.9590970439396147</v>
       </c>
       <c r="N4">
-        <v>0.9858997187543955</v>
+        <v>0.9590970439396147</v>
       </c>
       <c r="O4">
-        <v>0.9850852096096405</v>
+        <v>0.9462089551229922</v>
       </c>
       <c r="P4">
-        <v>0.9954423765572278</v>
+        <v>0.9754722936457915</v>
       </c>
       <c r="Q4">
-        <v>0.9954423765572278</v>
+        <v>0.9754722936457915</v>
       </c>
       <c r="R4">
-        <v>1.000213705458644</v>
+        <v>0.9836599184988798</v>
       </c>
       <c r="S4">
-        <v>1.000213705458644</v>
+        <v>0.9836599184988798</v>
       </c>
       <c r="T4">
-        <v>0.9983012686453673</v>
+        <v>1.001930747737606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9368140307377395</v>
+        <v>0.8371193547169811</v>
       </c>
       <c r="D5">
-        <v>1.009943476324519</v>
+        <v>1.056059325202156</v>
       </c>
       <c r="E5">
-        <v>0.9368140307377395</v>
+        <v>0.8371193547169811</v>
       </c>
       <c r="F5">
-        <v>1.027006427363722</v>
+        <v>1.013907904770891</v>
       </c>
       <c r="G5">
-        <v>0.9683209389776209</v>
+        <v>0.8988687012668459</v>
       </c>
       <c r="H5">
-        <v>1.02432197939809</v>
+        <v>1.162009419191374</v>
       </c>
       <c r="I5">
-        <v>1.027006427363722</v>
+        <v>1.013907904770891</v>
       </c>
       <c r="J5">
-        <v>1.014918099658588</v>
+        <v>1.043770287574124</v>
       </c>
       <c r="K5">
-        <v>1.027006427363722</v>
+        <v>1.013907904770891</v>
       </c>
       <c r="L5">
-        <v>1.009943476324519</v>
+        <v>1.056059325202156</v>
       </c>
       <c r="M5">
-        <v>0.9733787535311291</v>
+        <v>0.9465893399595683</v>
       </c>
       <c r="N5">
-        <v>0.9733787535311291</v>
+        <v>0.9465893399595683</v>
       </c>
       <c r="O5">
-        <v>0.9716928153466263</v>
+        <v>0.9306824603953275</v>
       </c>
       <c r="P5">
-        <v>0.99125464480866</v>
+        <v>0.9690288615633426</v>
       </c>
       <c r="Q5">
-        <v>0.99125464480866</v>
+        <v>0.9690288615633426</v>
       </c>
       <c r="R5">
-        <v>1.000192590447425</v>
+        <v>0.9802486223652296</v>
       </c>
       <c r="S5">
-        <v>1.000192590447425</v>
+        <v>0.9802486223652296</v>
       </c>
       <c r="T5">
-        <v>0.9968874920767132</v>
+        <v>1.001955832120395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9075776191288629</v>
+        <v>0.8151599815909085</v>
       </c>
       <c r="D6">
-        <v>1.014752681483102</v>
+        <v>1.06282150034091</v>
       </c>
       <c r="E6">
-        <v>0.9075776191288629</v>
+        <v>0.8151599815909085</v>
       </c>
       <c r="F6">
-        <v>1.03918612225265</v>
+        <v>1.017273863977273</v>
       </c>
       <c r="G6">
-        <v>0.9535288166941418</v>
+        <v>0.885647146875</v>
       </c>
       <c r="H6">
-        <v>1.036050969689349</v>
+        <v>1.181557971193183</v>
       </c>
       <c r="I6">
-        <v>1.03918612225265</v>
+        <v>1.017273863977273</v>
       </c>
       <c r="J6">
-        <v>1.021876146192263</v>
+        <v>1.049542319829546</v>
       </c>
       <c r="K6">
-        <v>1.03918612225265</v>
+        <v>1.017273863977273</v>
       </c>
       <c r="L6">
-        <v>1.014752681483102</v>
+        <v>1.06282150034091</v>
       </c>
       <c r="M6">
-        <v>0.9611651503059826</v>
+        <v>0.9389907409659092</v>
       </c>
       <c r="N6">
-        <v>0.9611651503059826</v>
+        <v>0.9389907409659092</v>
       </c>
       <c r="O6">
-        <v>0.9586197057687024</v>
+        <v>0.9212095429356061</v>
       </c>
       <c r="P6">
-        <v>0.9871721409548716</v>
+        <v>0.9650851153030304</v>
       </c>
       <c r="Q6">
-        <v>0.9871721409548716</v>
+        <v>0.9650851153030304</v>
       </c>
       <c r="R6">
-        <v>1.000175636279316</v>
+        <v>0.9781323024715911</v>
       </c>
       <c r="S6">
-        <v>1.000175636279316</v>
+        <v>0.9781323024715911</v>
       </c>
       <c r="T6">
-        <v>0.9954953925733948</v>
+        <v>1.002000463967803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9990947339819851</v>
+        <v>0.8763166620337645</v>
       </c>
       <c r="D7">
-        <v>1.000344542416014</v>
+        <v>1.011836257369336</v>
       </c>
       <c r="E7">
-        <v>0.9990947339819851</v>
+        <v>0.8763166620337645</v>
       </c>
       <c r="F7">
-        <v>1.000022080053886</v>
+        <v>1.060431274644021</v>
       </c>
       <c r="G7">
-        <v>0.9994086524718904</v>
+        <v>0.9505209996936955</v>
       </c>
       <c r="H7">
-        <v>1.001026611225158</v>
+        <v>1.010374803164982</v>
       </c>
       <c r="I7">
-        <v>1.000022080053886</v>
+        <v>1.060431274644021</v>
       </c>
       <c r="J7">
-        <v>1.000250529133265</v>
+        <v>1.026003903278924</v>
       </c>
       <c r="K7">
-        <v>1.000022080053886</v>
+        <v>1.060431274644021</v>
       </c>
       <c r="L7">
-        <v>1.000344542416014</v>
+        <v>1.011836257369336</v>
       </c>
       <c r="M7">
-        <v>0.9997196381989993</v>
+        <v>0.9440764597015503</v>
       </c>
       <c r="N7">
-        <v>0.9997196381989993</v>
+        <v>0.9440764597015503</v>
       </c>
       <c r="O7">
-        <v>0.999615976289963</v>
+        <v>0.946224639698932</v>
       </c>
       <c r="P7">
-        <v>0.9998204521506283</v>
+        <v>0.9828613980157073</v>
       </c>
       <c r="Q7">
-        <v>0.9998204521506283</v>
+        <v>0.9828613980157073</v>
       </c>
       <c r="R7">
-        <v>0.9998708591264428</v>
+        <v>1.002253867172786</v>
       </c>
       <c r="S7">
-        <v>0.9998708591264428</v>
+        <v>1.002253867172786</v>
       </c>
       <c r="T7">
-        <v>1.000024524880367</v>
+        <v>0.9892473166974539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9976297943887529</v>
+        <v>0.8734368075673115</v>
       </c>
       <c r="D8">
-        <v>1.00084192315794</v>
+        <v>1.012884684982304</v>
       </c>
       <c r="E8">
-        <v>0.9976297943887529</v>
+        <v>0.8734368075673115</v>
       </c>
       <c r="F8">
-        <v>1.000168869761199</v>
+        <v>1.060641526603249</v>
       </c>
       <c r="G8">
-        <v>0.9984883042302624</v>
+        <v>0.9485953891287184</v>
       </c>
       <c r="H8">
-        <v>1.002496865672313</v>
+        <v>1.013637439264905</v>
       </c>
       <c r="I8">
-        <v>1.000168869761199</v>
+        <v>1.060641526603249</v>
       </c>
       <c r="J8">
-        <v>1.000645696746397</v>
+        <v>1.026807964818492</v>
       </c>
       <c r="K8">
-        <v>1.000168869761199</v>
+        <v>1.060641526603249</v>
       </c>
       <c r="L8">
-        <v>1.00084192315794</v>
+        <v>1.012884684982304</v>
       </c>
       <c r="M8">
-        <v>0.9992358587733466</v>
+        <v>0.9431607462748075</v>
       </c>
       <c r="N8">
-        <v>0.9992358587733466</v>
+        <v>0.9431607462748075</v>
       </c>
       <c r="O8">
-        <v>0.998986673925652</v>
+        <v>0.9449722938927779</v>
       </c>
       <c r="P8">
-        <v>0.9995468624359644</v>
+        <v>0.9823210063842879</v>
       </c>
       <c r="Q8">
-        <v>0.9995468624359644</v>
+        <v>0.9823210063842879</v>
       </c>
       <c r="R8">
-        <v>0.9997023642672731</v>
+        <v>1.001901136439028</v>
       </c>
       <c r="S8">
-        <v>0.9997023642672731</v>
+        <v>1.001901136439028</v>
       </c>
       <c r="T8">
-        <v>1.000045242326144</v>
+        <v>0.9893339687274967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9965250504568445</v>
+        <v>0.8712241455105554</v>
       </c>
       <c r="D9">
-        <v>1.001098567488619</v>
+        <v>1.013940269136762</v>
       </c>
       <c r="E9">
-        <v>0.9965250504568445</v>
+        <v>0.8712241455105554</v>
       </c>
       <c r="F9">
-        <v>1.000493130829909</v>
+        <v>1.060333089453451</v>
       </c>
       <c r="G9">
-        <v>0.9978738001383012</v>
+        <v>0.9469732674913701</v>
       </c>
       <c r="H9">
-        <v>1.003213418684433</v>
+        <v>1.016924768043211</v>
       </c>
       <c r="I9">
-        <v>1.000493130829909</v>
+        <v>1.060333089453451</v>
       </c>
       <c r="J9">
-        <v>1.000922054478929</v>
+        <v>1.027465875285846</v>
       </c>
       <c r="K9">
-        <v>1.000493130829909</v>
+        <v>1.060333089453451</v>
       </c>
       <c r="L9">
-        <v>1.001098567488619</v>
+        <v>1.013940269136762</v>
       </c>
       <c r="M9">
-        <v>0.9988118089727316</v>
+        <v>0.9425822073236588</v>
       </c>
       <c r="N9">
-        <v>0.9988118089727316</v>
+        <v>0.9425822073236588</v>
       </c>
       <c r="O9">
-        <v>0.9984991393612548</v>
+        <v>0.9440458940462292</v>
       </c>
       <c r="P9">
-        <v>0.9993722495917906</v>
+        <v>0.9818325013669228</v>
       </c>
       <c r="Q9">
-        <v>0.9993722495917906</v>
+        <v>0.9818325013669228</v>
       </c>
       <c r="R9">
-        <v>0.9996524699013202</v>
+        <v>1.001457648388555</v>
       </c>
       <c r="S9">
-        <v>0.9996524699013202</v>
+        <v>1.001457648388555</v>
       </c>
       <c r="T9">
-        <v>1.000021003679506</v>
+        <v>0.989476902486866</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9927193520252228</v>
+        <v>0.8646562097575993</v>
       </c>
       <c r="D10">
-        <v>1.002467839769988</v>
+        <v>1.01547226754123</v>
       </c>
       <c r="E10">
-        <v>0.9927193520252228</v>
+        <v>0.8646562097575993</v>
       </c>
       <c r="F10">
-        <v>1.000737923225331</v>
+        <v>1.062450579248239</v>
       </c>
       <c r="G10">
-        <v>0.9954270360955371</v>
+        <v>0.9430161849391252</v>
       </c>
       <c r="H10">
-        <v>1.007297409086454</v>
+        <v>1.021847235162039</v>
       </c>
       <c r="I10">
-        <v>1.000737923225331</v>
+        <v>1.062450579248239</v>
       </c>
       <c r="J10">
-        <v>1.001963492161786</v>
+        <v>1.029168571120478</v>
       </c>
       <c r="K10">
-        <v>1.000737923225331</v>
+        <v>1.062450579248239</v>
       </c>
       <c r="L10">
-        <v>1.002467839769988</v>
+        <v>1.01547226754123</v>
       </c>
       <c r="M10">
-        <v>0.9975935958976057</v>
+        <v>0.9400642386494145</v>
       </c>
       <c r="N10">
-        <v>0.9975935958976057</v>
+        <v>0.9400642386494145</v>
       </c>
       <c r="O10">
-        <v>0.9968714092969161</v>
+        <v>0.9410482207459848</v>
       </c>
       <c r="P10">
-        <v>0.9986417050068476</v>
+        <v>0.9808596855156896</v>
       </c>
       <c r="Q10">
-        <v>0.9986417050068476</v>
+        <v>0.9808596855156894</v>
       </c>
       <c r="R10">
-        <v>0.9991657595614685</v>
+        <v>1.001257408948827</v>
       </c>
       <c r="S10">
-        <v>0.9991657595614685</v>
+        <v>1.001257408948827</v>
       </c>
       <c r="T10">
-        <v>1.000102175394053</v>
+        <v>0.9894351746281185</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9875487216009832</v>
+        <v>0.9811528386450071</v>
       </c>
       <c r="D11">
-        <v>1.003883880684114</v>
+        <v>1.00288149617741</v>
       </c>
       <c r="E11">
-        <v>0.9875487216009832</v>
+        <v>0.9811528386450071</v>
       </c>
       <c r="F11">
-        <v>1.001880697664057</v>
+        <v>1.008169895687521</v>
       </c>
       <c r="G11">
-        <v>0.9923886633923003</v>
+        <v>0.9906499602537416</v>
       </c>
       <c r="H11">
-        <v>1.011399585341981</v>
+        <v>1.006914084918345</v>
       </c>
       <c r="I11">
-        <v>1.001880697664057</v>
+        <v>1.008169895687521</v>
       </c>
       <c r="J11">
-        <v>1.003299861228188</v>
+        <v>1.004423302620734</v>
       </c>
       <c r="K11">
-        <v>1.001880697664057</v>
+        <v>1.008169895687521</v>
       </c>
       <c r="L11">
-        <v>1.003883880684114</v>
+        <v>1.00288149617741</v>
       </c>
       <c r="M11">
-        <v>0.9957163011425485</v>
+        <v>0.9920171674112088</v>
       </c>
       <c r="N11">
-        <v>0.9957163011425485</v>
+        <v>0.9920171674112088</v>
       </c>
       <c r="O11">
-        <v>0.9946070885591324</v>
+        <v>0.9915614316920531</v>
       </c>
       <c r="P11">
-        <v>0.9977710999830512</v>
+        <v>0.9974014101699797</v>
       </c>
       <c r="Q11">
-        <v>0.9977710999830514</v>
+        <v>0.9974014101699797</v>
       </c>
       <c r="R11">
-        <v>0.9987984994033027</v>
+        <v>1.000093531549365</v>
       </c>
       <c r="S11">
-        <v>0.9987984994033027</v>
+        <v>1.000093531549365</v>
       </c>
       <c r="T11">
-        <v>1.000066901651937</v>
+        <v>0.9990319297171268</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.082245204613516</v>
+        <v>0.9908657790105913</v>
       </c>
       <c r="D12">
-        <v>0.9486878086816647</v>
+        <v>1.001334267622316</v>
       </c>
       <c r="E12">
-        <v>1.082245204613516</v>
+        <v>0.9908657790105913</v>
       </c>
       <c r="F12">
-        <v>1.034301150042558</v>
+        <v>1.004053294870273</v>
       </c>
       <c r="G12">
-        <v>1.065714757544415</v>
+        <v>0.9955296569657763</v>
       </c>
       <c r="H12">
-        <v>0.8459591511100624</v>
+        <v>1.003120947019339</v>
       </c>
       <c r="I12">
-        <v>1.034301150042558</v>
+        <v>1.004053294870273</v>
       </c>
       <c r="J12">
-        <v>0.973647973206703</v>
+        <v>1.002126986156312</v>
       </c>
       <c r="K12">
-        <v>1.034301150042558</v>
+        <v>1.004053294870273</v>
       </c>
       <c r="L12">
-        <v>0.9486878086816647</v>
+        <v>1.001334267622316</v>
       </c>
       <c r="M12">
-        <v>1.01546650664759</v>
+        <v>0.9961000233164535</v>
       </c>
       <c r="N12">
-        <v>1.01546650664759</v>
+        <v>0.9961000233164535</v>
       </c>
       <c r="O12">
-        <v>1.032215923613198</v>
+        <v>0.995909901199561</v>
       </c>
       <c r="P12">
-        <v>1.021744721112579</v>
+        <v>0.9987511138343935</v>
       </c>
       <c r="Q12">
-        <v>1.02174472111258</v>
+        <v>0.9987511138343935</v>
       </c>
       <c r="R12">
-        <v>1.024883828345074</v>
+        <v>1.000076659093363</v>
       </c>
       <c r="S12">
-        <v>1.024883828345074</v>
+        <v>1.000076659093363</v>
       </c>
       <c r="T12">
-        <v>0.9917593408664866</v>
+        <v>0.9995051552741012</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.050095508034032</v>
+        <v>0.9686607452529609</v>
       </c>
       <c r="D13">
-        <v>1.000643325205356</v>
+        <v>1.004164552167701</v>
       </c>
       <c r="E13">
-        <v>1.050095508034032</v>
+        <v>0.9686607452529609</v>
       </c>
       <c r="F13">
-        <v>0.9645566276542581</v>
+        <v>1.014686774363521</v>
       </c>
       <c r="G13">
-        <v>1.018276206250649</v>
+        <v>0.9848957819238803</v>
       </c>
       <c r="H13">
-        <v>1.009428476563701</v>
+        <v>1.009417354281634</v>
       </c>
       <c r="I13">
-        <v>0.9645566276542581</v>
+        <v>1.014686774363521</v>
       </c>
       <c r="J13">
-        <v>0.9901224210328134</v>
+        <v>1.007232257795728</v>
       </c>
       <c r="K13">
-        <v>0.9645566276542581</v>
+        <v>1.014686774363521</v>
       </c>
       <c r="L13">
-        <v>1.000643325205356</v>
+        <v>1.004164552167701</v>
       </c>
       <c r="M13">
-        <v>1.025369416619694</v>
+        <v>0.9864126487103309</v>
       </c>
       <c r="N13">
-        <v>1.025369416619694</v>
+        <v>0.9864126487103309</v>
       </c>
       <c r="O13">
-        <v>1.023005013163346</v>
+        <v>0.9859070264481806</v>
       </c>
       <c r="P13">
-        <v>1.005098486964549</v>
+        <v>0.9958373572613942</v>
       </c>
       <c r="Q13">
-        <v>1.005098486964549</v>
+        <v>0.9958373572613941</v>
       </c>
       <c r="R13">
-        <v>0.9949630221369763</v>
+        <v>1.000549711536926</v>
       </c>
       <c r="S13">
-        <v>0.9949630221369763</v>
+        <v>1.000549711536926</v>
       </c>
       <c r="T13">
-        <v>1.005520427456802</v>
+        <v>0.9981762442975707</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.087595502107483</v>
+        <v>0.9523983260300796</v>
       </c>
       <c r="D14">
-        <v>0.9485544529570193</v>
+        <v>1.007533370677645</v>
       </c>
       <c r="E14">
-        <v>1.087595502107483</v>
+        <v>0.9523983260300796</v>
       </c>
       <c r="F14">
-        <v>1.032618269452672</v>
+        <v>1.02023474258572</v>
       </c>
       <c r="G14">
-        <v>1.065495944084504</v>
+        <v>0.9761357375961541</v>
       </c>
       <c r="H14">
-        <v>0.8506261723366549</v>
+        <v>1.018445288859961</v>
       </c>
       <c r="I14">
-        <v>1.032618269452672</v>
+        <v>1.02023474258572</v>
       </c>
       <c r="J14">
-        <v>0.9730628495404513</v>
+        <v>1.011236401478493</v>
       </c>
       <c r="K14">
-        <v>1.032618269452672</v>
+        <v>1.02023474258572</v>
       </c>
       <c r="L14">
-        <v>0.9485544529570193</v>
+        <v>1.007533370677645</v>
       </c>
       <c r="M14">
-        <v>1.018074977532251</v>
+        <v>0.9799658483538622</v>
       </c>
       <c r="N14">
-        <v>1.018074977532251</v>
+        <v>0.9799658483538622</v>
       </c>
       <c r="O14">
-        <v>1.033881966383002</v>
+        <v>0.9786891447679595</v>
       </c>
       <c r="P14">
-        <v>1.022922741505725</v>
+        <v>0.9933888130978149</v>
       </c>
       <c r="Q14">
-        <v>1.022922741505725</v>
+        <v>0.9933888130978149</v>
       </c>
       <c r="R14">
-        <v>1.025346623492462</v>
+        <v>1.000100295469791</v>
       </c>
       <c r="S14">
-        <v>1.025346623492462</v>
+        <v>1.000100295469791</v>
       </c>
       <c r="T14">
-        <v>0.9929921984131306</v>
+        <v>0.9976639778713423</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.045180379203713</v>
+        <v>0.9828076950018613</v>
       </c>
       <c r="D15">
-        <v>1.001623181772805</v>
+        <v>1.002632565798975</v>
       </c>
       <c r="E15">
-        <v>1.045180379203713</v>
+        <v>0.9828076950018613</v>
       </c>
       <c r="F15">
-        <v>0.9638230075216269</v>
+        <v>1.00747843794116</v>
       </c>
       <c r="G15">
-        <v>1.018693201383843</v>
+        <v>0.9914306405156864</v>
       </c>
       <c r="H15">
-        <v>1.006931797808952</v>
+        <v>1.00637518371409</v>
       </c>
       <c r="I15">
-        <v>0.9638230075216269</v>
+        <v>1.00747843794116</v>
       </c>
       <c r="J15">
-        <v>0.9906027232314597</v>
+        <v>1.004045355875195</v>
       </c>
       <c r="K15">
-        <v>0.9638230075216269</v>
+        <v>1.00747843794116</v>
       </c>
       <c r="L15">
-        <v>1.001623181772805</v>
+        <v>1.002632565798975</v>
       </c>
       <c r="M15">
-        <v>1.023401780488259</v>
+        <v>0.9927201304004181</v>
       </c>
       <c r="N15">
-        <v>1.023401780488259</v>
+        <v>0.9927201304004181</v>
       </c>
       <c r="O15">
-        <v>1.02183225412012</v>
+        <v>0.9922903004388409</v>
       </c>
       <c r="P15">
-        <v>1.003542189499381</v>
+        <v>0.997639566247332</v>
       </c>
       <c r="Q15">
-        <v>1.003542189499382</v>
+        <v>0.9976395662473317</v>
       </c>
       <c r="R15">
-        <v>0.9936123940049429</v>
+        <v>1.000099284170789</v>
       </c>
       <c r="S15">
-        <v>0.9936123940049429</v>
+        <v>1.000099284170789</v>
       </c>
       <c r="T15">
-        <v>1.004475715153733</v>
+        <v>0.9991283131411614</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6695998222534102</v>
+        <v>0.9667475620779831</v>
       </c>
       <c r="D16">
-        <v>1.054304500261289</v>
+        <v>1.005051875430808</v>
       </c>
       <c r="E16">
-        <v>0.6695998222534102</v>
+        <v>0.9667475620779831</v>
       </c>
       <c r="F16">
-        <v>1.136641273974179</v>
+        <v>1.014527692162892</v>
       </c>
       <c r="G16">
-        <v>0.8332658279616537</v>
+        <v>0.9834561913201307</v>
       </c>
       <c r="H16">
-        <v>1.134137759274169</v>
+        <v>1.012209786638583</v>
       </c>
       <c r="I16">
-        <v>1.136641273974179</v>
+        <v>1.014527692162892</v>
       </c>
       <c r="J16">
-        <v>1.078309394438676</v>
+        <v>1.007814504241806</v>
       </c>
       <c r="K16">
-        <v>1.136641273974179</v>
+        <v>1.014527692162892</v>
       </c>
       <c r="L16">
-        <v>1.054304500261289</v>
+        <v>1.005051875430808</v>
       </c>
       <c r="M16">
-        <v>0.8619521612573495</v>
+        <v>0.9858997187543955</v>
       </c>
       <c r="N16">
-        <v>0.8619521612573495</v>
+        <v>0.9858997187543955</v>
       </c>
       <c r="O16">
-        <v>0.8523900501587843</v>
+        <v>0.9850852096096405</v>
       </c>
       <c r="P16">
-        <v>0.953515198829626</v>
+        <v>0.9954423765572278</v>
       </c>
       <c r="Q16">
-        <v>0.953515198829626</v>
+        <v>0.9954423765572278</v>
       </c>
       <c r="R16">
-        <v>0.9992967176157641</v>
+        <v>1.000213705458644</v>
       </c>
       <c r="S16">
-        <v>0.9992967176157641</v>
+        <v>1.000213705458644</v>
       </c>
       <c r="T16">
-        <v>0.9843764296938963</v>
+        <v>0.9983012686453673</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7406635962835486</v>
+        <v>0.9368140307377395</v>
       </c>
       <c r="D17">
-        <v>1.05020035630943</v>
+        <v>1.009943476324519</v>
       </c>
       <c r="E17">
-        <v>0.7406635962835486</v>
+        <v>0.9368140307377395</v>
       </c>
       <c r="F17">
-        <v>1.093417593196337</v>
+        <v>1.027006427363722</v>
       </c>
       <c r="G17">
-        <v>0.8642716495948908</v>
+        <v>0.9683209389776209</v>
       </c>
       <c r="H17">
-        <v>1.129934169602847</v>
+        <v>1.02432197939809</v>
       </c>
       <c r="I17">
-        <v>1.093417593196337</v>
+        <v>1.027006427363722</v>
       </c>
       <c r="J17">
-        <v>1.062800136947084</v>
+        <v>1.014918099658588</v>
       </c>
       <c r="K17">
-        <v>1.093417593196337</v>
+        <v>1.027006427363722</v>
       </c>
       <c r="L17">
-        <v>1.05020035630943</v>
+        <v>1.009943476324519</v>
       </c>
       <c r="M17">
-        <v>0.8954319762964894</v>
+        <v>0.9733787535311291</v>
       </c>
       <c r="N17">
-        <v>0.8954319762964894</v>
+        <v>0.9733787535311291</v>
       </c>
       <c r="O17">
-        <v>0.8850452007292899</v>
+        <v>0.9716928153466263</v>
       </c>
       <c r="P17">
-        <v>0.9614271819297718</v>
+        <v>0.99125464480866</v>
       </c>
       <c r="Q17">
-        <v>0.9614271819297718</v>
+        <v>0.99125464480866</v>
       </c>
       <c r="R17">
-        <v>0.9944247847464132</v>
+        <v>1.000192590447425</v>
       </c>
       <c r="S17">
-        <v>0.9944247847464132</v>
+        <v>1.000192590447425</v>
       </c>
       <c r="T17">
-        <v>0.9902145836556896</v>
+        <v>0.9968874920767132</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8829454891533665</v>
+        <v>0.9075776191288629</v>
       </c>
       <c r="D18">
-        <v>1.041623321169923</v>
+        <v>1.014752681483102</v>
       </c>
       <c r="E18">
-        <v>0.8829454891533665</v>
+        <v>0.9075776191288629</v>
       </c>
       <c r="F18">
-        <v>1.00753628791721</v>
+        <v>1.03918612225265</v>
       </c>
       <c r="G18">
-        <v>0.9265776654959232</v>
+        <v>0.9535288166941418</v>
       </c>
       <c r="H18">
-        <v>1.12035360180717</v>
+        <v>1.036050969689349</v>
       </c>
       <c r="I18">
-        <v>1.00753628791721</v>
+        <v>1.03918612225265</v>
       </c>
       <c r="J18">
-        <v>1.031685413403651</v>
+        <v>1.021876146192263</v>
       </c>
       <c r="K18">
-        <v>1.00753628791721</v>
+        <v>1.03918612225265</v>
       </c>
       <c r="L18">
-        <v>1.041623321169923</v>
+        <v>1.014752681483102</v>
       </c>
       <c r="M18">
-        <v>0.9622844051616448</v>
+        <v>0.9611651503059826</v>
       </c>
       <c r="N18">
-        <v>0.9622844051616448</v>
+        <v>0.9611651503059826</v>
       </c>
       <c r="O18">
-        <v>0.9503821586064043</v>
+        <v>0.9586197057687024</v>
       </c>
       <c r="P18">
-        <v>0.9773683660801668</v>
+        <v>0.9871721409548716</v>
       </c>
       <c r="Q18">
-        <v>0.9773683660801668</v>
+        <v>0.9871721409548716</v>
       </c>
       <c r="R18">
-        <v>0.9849103465394276</v>
+        <v>1.000175636279316</v>
       </c>
       <c r="S18">
-        <v>0.9849103465394276</v>
+        <v>1.000175636279316</v>
       </c>
       <c r="T18">
-        <v>1.001786963157874</v>
+        <v>0.9954953925733948</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8786526657425322</v>
+        <v>0.9990947339819851</v>
       </c>
       <c r="D19">
-        <v>1.047877441811972</v>
+        <v>1.000344542416014</v>
       </c>
       <c r="E19">
-        <v>0.8786526657425322</v>
+        <v>0.9990947339819851</v>
       </c>
       <c r="F19">
-        <v>0.9997877353465963</v>
+        <v>1.000022080053886</v>
       </c>
       <c r="G19">
-        <v>0.9200843072324426</v>
+        <v>0.9994086524718904</v>
       </c>
       <c r="H19">
-        <v>1.141505721288986</v>
+        <v>1.001026611225158</v>
       </c>
       <c r="I19">
-        <v>0.9997877353465963</v>
+        <v>1.000022080053886</v>
       </c>
       <c r="J19">
-        <v>1.033857122200281</v>
+        <v>1.000250529133265</v>
       </c>
       <c r="K19">
-        <v>0.9997877353465963</v>
+        <v>1.000022080053886</v>
       </c>
       <c r="L19">
-        <v>1.047877441811972</v>
+        <v>1.000344542416014</v>
       </c>
       <c r="M19">
-        <v>0.963265053777252</v>
+        <v>0.9997196381989993</v>
       </c>
       <c r="N19">
-        <v>0.963265053777252</v>
+        <v>0.9997196381989993</v>
       </c>
       <c r="O19">
-        <v>0.9488714715956489</v>
+        <v>0.999615976289963</v>
       </c>
       <c r="P19">
-        <v>0.9754392809670334</v>
+        <v>0.9998204521506283</v>
       </c>
       <c r="Q19">
-        <v>0.9754392809670334</v>
+        <v>0.9998204521506283</v>
       </c>
       <c r="R19">
-        <v>0.9815263945619241</v>
+        <v>0.9998708591264428</v>
       </c>
       <c r="S19">
-        <v>0.9815263945619241</v>
+        <v>0.9998708591264428</v>
       </c>
       <c r="T19">
-        <v>1.003627498937135</v>
+        <v>1.000024524880367</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.00041789579996</v>
+        <v>0.9976297943887529</v>
       </c>
       <c r="D20">
-        <v>1.000374167647163</v>
+        <v>1.00084192315794</v>
       </c>
       <c r="E20">
-        <v>1.00041789579996</v>
+        <v>0.9976297943887529</v>
       </c>
       <c r="F20">
-        <v>0.9989675284533579</v>
+        <v>1.000168869761199</v>
       </c>
       <c r="G20">
-        <v>1.000009991464722</v>
+        <v>0.9984883042302624</v>
       </c>
       <c r="H20">
-        <v>1.001078373919358</v>
+        <v>1.002496865672313</v>
       </c>
       <c r="I20">
-        <v>0.9989675284533579</v>
+        <v>1.000168869761199</v>
       </c>
       <c r="J20">
-        <v>0.9999640677626667</v>
+        <v>1.000645696746397</v>
       </c>
       <c r="K20">
-        <v>0.9989675284533579</v>
+        <v>1.000168869761199</v>
       </c>
       <c r="L20">
-        <v>1.000374167647163</v>
+        <v>1.00084192315794</v>
       </c>
       <c r="M20">
-        <v>1.000396031723561</v>
+        <v>0.9992358587733466</v>
       </c>
       <c r="N20">
-        <v>1.000396031723561</v>
+        <v>0.9992358587733466</v>
       </c>
       <c r="O20">
-        <v>1.000267351637281</v>
+        <v>0.998986673925652</v>
       </c>
       <c r="P20">
-        <v>0.9999198639668269</v>
+        <v>0.9995468624359644</v>
       </c>
       <c r="Q20">
-        <v>0.9999198639668269</v>
+        <v>0.9995468624359644</v>
       </c>
       <c r="R20">
-        <v>0.9996817800884596</v>
+        <v>0.9997023642672731</v>
       </c>
       <c r="S20">
-        <v>0.9996817800884596</v>
+        <v>0.9997023642672731</v>
       </c>
       <c r="T20">
-        <v>1.000135337507871</v>
+        <v>1.000045242326144</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9982611824302384</v>
+        <v>0.9965250504568445</v>
       </c>
       <c r="D21">
-        <v>0.9999602683597255</v>
+        <v>1.001098567488619</v>
       </c>
       <c r="E21">
-        <v>0.9982611824302384</v>
+        <v>0.9965250504568445</v>
       </c>
       <c r="F21">
-        <v>1.001373793755154</v>
+        <v>1.000493130829909</v>
       </c>
       <c r="G21">
-        <v>0.9992202747913022</v>
+        <v>0.9978738001383012</v>
       </c>
       <c r="H21">
-        <v>0.9999296263109907</v>
+        <v>1.003213418684433</v>
       </c>
       <c r="I21">
-        <v>1.001373793755154</v>
+        <v>1.000493130829909</v>
       </c>
       <c r="J21">
-        <v>1.000372374077876</v>
+        <v>1.000922054478929</v>
       </c>
       <c r="K21">
-        <v>1.001373793755154</v>
+        <v>1.000493130829909</v>
       </c>
       <c r="L21">
-        <v>0.9999602683597255</v>
+        <v>1.001098567488619</v>
       </c>
       <c r="M21">
-        <v>0.999110725394982</v>
+        <v>0.9988118089727316</v>
       </c>
       <c r="N21">
-        <v>0.999110725394982</v>
+        <v>0.9988118089727316</v>
       </c>
       <c r="O21">
-        <v>0.9991472418604221</v>
+        <v>0.9984991393612548</v>
       </c>
       <c r="P21">
-        <v>0.9998650815150393</v>
+        <v>0.9993722495917906</v>
       </c>
       <c r="Q21">
-        <v>0.9998650815150393</v>
+        <v>0.9993722495917906</v>
       </c>
       <c r="R21">
-        <v>1.000242259575068</v>
+        <v>0.9996524699013202</v>
       </c>
       <c r="S21">
-        <v>1.000242259575068</v>
+        <v>0.9996524699013202</v>
       </c>
       <c r="T21">
-        <v>0.9998529199542144</v>
+        <v>1.000021003679506</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9957936760272201</v>
+        <v>0.9927193520252228</v>
       </c>
       <c r="D22">
-        <v>1.001702204574565</v>
+        <v>1.002467839769988</v>
       </c>
       <c r="E22">
-        <v>0.9957936760272201</v>
+        <v>0.9927193520252228</v>
       </c>
       <c r="F22">
-        <v>0.9997458681877119</v>
+        <v>1.000737923225331</v>
       </c>
       <c r="G22">
-        <v>0.9974731168486984</v>
+        <v>0.9954270360955371</v>
       </c>
       <c r="H22">
-        <v>1.004424088542883</v>
+        <v>1.007297409086454</v>
       </c>
       <c r="I22">
-        <v>0.9997458681877119</v>
+        <v>1.000737923225331</v>
       </c>
       <c r="J22">
-        <v>1.001131844163525</v>
+        <v>1.001963492161786</v>
       </c>
       <c r="K22">
-        <v>0.9997458681877119</v>
+        <v>1.000737923225331</v>
       </c>
       <c r="L22">
-        <v>1.001702204574565</v>
+        <v>1.002467839769988</v>
       </c>
       <c r="M22">
-        <v>0.9987479403008924</v>
+        <v>0.9975935958976057</v>
       </c>
       <c r="N22">
-        <v>0.9987479403008924</v>
+        <v>0.9975935958976057</v>
       </c>
       <c r="O22">
-        <v>0.9983229991501611</v>
+        <v>0.9968714092969161</v>
       </c>
       <c r="P22">
-        <v>0.9990805829298323</v>
+        <v>0.9986417050068476</v>
       </c>
       <c r="Q22">
-        <v>0.9990805829298323</v>
+        <v>0.9986417050068476</v>
       </c>
       <c r="R22">
-        <v>0.9992469042443022</v>
+        <v>0.9991657595614685</v>
       </c>
       <c r="S22">
-        <v>0.9992469042443022</v>
+        <v>0.9991657595614685</v>
       </c>
       <c r="T22">
-        <v>1.000045133057434</v>
+        <v>1.000102175394053</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9875487216009832</v>
+      </c>
+      <c r="D23">
+        <v>1.003883880684114</v>
+      </c>
+      <c r="E23">
+        <v>0.9875487216009832</v>
+      </c>
+      <c r="F23">
+        <v>1.001880697664057</v>
+      </c>
+      <c r="G23">
+        <v>0.9923886633923003</v>
+      </c>
+      <c r="H23">
+        <v>1.011399585341981</v>
+      </c>
+      <c r="I23">
+        <v>1.001880697664057</v>
+      </c>
+      <c r="J23">
+        <v>1.003299861228188</v>
+      </c>
+      <c r="K23">
+        <v>1.001880697664057</v>
+      </c>
+      <c r="L23">
+        <v>1.003883880684114</v>
+      </c>
+      <c r="M23">
+        <v>0.9957163011425485</v>
+      </c>
+      <c r="N23">
+        <v>0.9957163011425485</v>
+      </c>
+      <c r="O23">
+        <v>0.9946070885591324</v>
+      </c>
+      <c r="P23">
+        <v>0.9977710999830512</v>
+      </c>
+      <c r="Q23">
+        <v>0.9977710999830514</v>
+      </c>
+      <c r="R23">
+        <v>0.9987984994033027</v>
+      </c>
+      <c r="S23">
+        <v>0.9987984994033027</v>
+      </c>
+      <c r="T23">
+        <v>1.000066901651937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.082245204613516</v>
+      </c>
+      <c r="D24">
+        <v>0.9486878086816647</v>
+      </c>
+      <c r="E24">
+        <v>1.082245204613516</v>
+      </c>
+      <c r="F24">
+        <v>1.034301150042558</v>
+      </c>
+      <c r="G24">
+        <v>1.065714757544415</v>
+      </c>
+      <c r="H24">
+        <v>0.8459591511100624</v>
+      </c>
+      <c r="I24">
+        <v>1.034301150042558</v>
+      </c>
+      <c r="J24">
+        <v>0.973647973206703</v>
+      </c>
+      <c r="K24">
+        <v>1.034301150042558</v>
+      </c>
+      <c r="L24">
+        <v>0.9486878086816647</v>
+      </c>
+      <c r="M24">
+        <v>1.01546650664759</v>
+      </c>
+      <c r="N24">
+        <v>1.01546650664759</v>
+      </c>
+      <c r="O24">
+        <v>1.032215923613198</v>
+      </c>
+      <c r="P24">
+        <v>1.021744721112579</v>
+      </c>
+      <c r="Q24">
+        <v>1.02174472111258</v>
+      </c>
+      <c r="R24">
+        <v>1.024883828345074</v>
+      </c>
+      <c r="S24">
+        <v>1.024883828345074</v>
+      </c>
+      <c r="T24">
+        <v>0.9917593408664866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.050095508034032</v>
+      </c>
+      <c r="D25">
+        <v>1.000643325205356</v>
+      </c>
+      <c r="E25">
+        <v>1.050095508034032</v>
+      </c>
+      <c r="F25">
+        <v>0.9645566276542581</v>
+      </c>
+      <c r="G25">
+        <v>1.018276206250649</v>
+      </c>
+      <c r="H25">
+        <v>1.009428476563701</v>
+      </c>
+      <c r="I25">
+        <v>0.9645566276542581</v>
+      </c>
+      <c r="J25">
+        <v>0.9901224210328134</v>
+      </c>
+      <c r="K25">
+        <v>0.9645566276542581</v>
+      </c>
+      <c r="L25">
+        <v>1.000643325205356</v>
+      </c>
+      <c r="M25">
+        <v>1.025369416619694</v>
+      </c>
+      <c r="N25">
+        <v>1.025369416619694</v>
+      </c>
+      <c r="O25">
+        <v>1.023005013163346</v>
+      </c>
+      <c r="P25">
+        <v>1.005098486964549</v>
+      </c>
+      <c r="Q25">
+        <v>1.005098486964549</v>
+      </c>
+      <c r="R25">
+        <v>0.9949630221369763</v>
+      </c>
+      <c r="S25">
+        <v>0.9949630221369763</v>
+      </c>
+      <c r="T25">
+        <v>1.005520427456802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.087595502107483</v>
+      </c>
+      <c r="D26">
+        <v>0.9485544529570193</v>
+      </c>
+      <c r="E26">
+        <v>1.087595502107483</v>
+      </c>
+      <c r="F26">
+        <v>1.032618269452672</v>
+      </c>
+      <c r="G26">
+        <v>1.065495944084504</v>
+      </c>
+      <c r="H26">
+        <v>0.8506261723366549</v>
+      </c>
+      <c r="I26">
+        <v>1.032618269452672</v>
+      </c>
+      <c r="J26">
+        <v>0.9730628495404513</v>
+      </c>
+      <c r="K26">
+        <v>1.032618269452672</v>
+      </c>
+      <c r="L26">
+        <v>0.9485544529570193</v>
+      </c>
+      <c r="M26">
+        <v>1.018074977532251</v>
+      </c>
+      <c r="N26">
+        <v>1.018074977532251</v>
+      </c>
+      <c r="O26">
+        <v>1.033881966383002</v>
+      </c>
+      <c r="P26">
+        <v>1.022922741505725</v>
+      </c>
+      <c r="Q26">
+        <v>1.022922741505725</v>
+      </c>
+      <c r="R26">
+        <v>1.025346623492462</v>
+      </c>
+      <c r="S26">
+        <v>1.025346623492462</v>
+      </c>
+      <c r="T26">
+        <v>0.9929921984131306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.045180379203713</v>
+      </c>
+      <c r="D27">
+        <v>1.001623181772805</v>
+      </c>
+      <c r="E27">
+        <v>1.045180379203713</v>
+      </c>
+      <c r="F27">
+        <v>0.9638230075216269</v>
+      </c>
+      <c r="G27">
+        <v>1.018693201383843</v>
+      </c>
+      <c r="H27">
+        <v>1.006931797808952</v>
+      </c>
+      <c r="I27">
+        <v>0.9638230075216269</v>
+      </c>
+      <c r="J27">
+        <v>0.9906027232314597</v>
+      </c>
+      <c r="K27">
+        <v>0.9638230075216269</v>
+      </c>
+      <c r="L27">
+        <v>1.001623181772805</v>
+      </c>
+      <c r="M27">
+        <v>1.023401780488259</v>
+      </c>
+      <c r="N27">
+        <v>1.023401780488259</v>
+      </c>
+      <c r="O27">
+        <v>1.02183225412012</v>
+      </c>
+      <c r="P27">
+        <v>1.003542189499381</v>
+      </c>
+      <c r="Q27">
+        <v>1.003542189499382</v>
+      </c>
+      <c r="R27">
+        <v>0.9936123940049429</v>
+      </c>
+      <c r="S27">
+        <v>0.9936123940049429</v>
+      </c>
+      <c r="T27">
+        <v>1.004475715153733</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.6695998222534102</v>
+      </c>
+      <c r="D28">
+        <v>1.054304500261289</v>
+      </c>
+      <c r="E28">
+        <v>0.6695998222534102</v>
+      </c>
+      <c r="F28">
+        <v>1.136641273974179</v>
+      </c>
+      <c r="G28">
+        <v>0.8332658279616537</v>
+      </c>
+      <c r="H28">
+        <v>1.134137759274169</v>
+      </c>
+      <c r="I28">
+        <v>1.136641273974179</v>
+      </c>
+      <c r="J28">
+        <v>1.078309394438676</v>
+      </c>
+      <c r="K28">
+        <v>1.136641273974179</v>
+      </c>
+      <c r="L28">
+        <v>1.054304500261289</v>
+      </c>
+      <c r="M28">
+        <v>0.8619521612573495</v>
+      </c>
+      <c r="N28">
+        <v>0.8619521612573495</v>
+      </c>
+      <c r="O28">
+        <v>0.8523900501587843</v>
+      </c>
+      <c r="P28">
+        <v>0.953515198829626</v>
+      </c>
+      <c r="Q28">
+        <v>0.953515198829626</v>
+      </c>
+      <c r="R28">
+        <v>0.9992967176157641</v>
+      </c>
+      <c r="S28">
+        <v>0.9992967176157641</v>
+      </c>
+      <c r="T28">
+        <v>0.9843764296938963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.7406635962835486</v>
+      </c>
+      <c r="D29">
+        <v>1.05020035630943</v>
+      </c>
+      <c r="E29">
+        <v>0.7406635962835486</v>
+      </c>
+      <c r="F29">
+        <v>1.093417593196337</v>
+      </c>
+      <c r="G29">
+        <v>0.8642716495948908</v>
+      </c>
+      <c r="H29">
+        <v>1.129934169602847</v>
+      </c>
+      <c r="I29">
+        <v>1.093417593196337</v>
+      </c>
+      <c r="J29">
+        <v>1.062800136947084</v>
+      </c>
+      <c r="K29">
+        <v>1.093417593196337</v>
+      </c>
+      <c r="L29">
+        <v>1.05020035630943</v>
+      </c>
+      <c r="M29">
+        <v>0.8954319762964894</v>
+      </c>
+      <c r="N29">
+        <v>0.8954319762964894</v>
+      </c>
+      <c r="O29">
+        <v>0.8850452007292899</v>
+      </c>
+      <c r="P29">
+        <v>0.9614271819297718</v>
+      </c>
+      <c r="Q29">
+        <v>0.9614271819297718</v>
+      </c>
+      <c r="R29">
+        <v>0.9944247847464132</v>
+      </c>
+      <c r="S29">
+        <v>0.9944247847464132</v>
+      </c>
+      <c r="T29">
+        <v>0.9902145836556896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8829454891533665</v>
+      </c>
+      <c r="D30">
+        <v>1.041623321169923</v>
+      </c>
+      <c r="E30">
+        <v>0.8829454891533665</v>
+      </c>
+      <c r="F30">
+        <v>1.00753628791721</v>
+      </c>
+      <c r="G30">
+        <v>0.9265776654959232</v>
+      </c>
+      <c r="H30">
+        <v>1.12035360180717</v>
+      </c>
+      <c r="I30">
+        <v>1.00753628791721</v>
+      </c>
+      <c r="J30">
+        <v>1.031685413403651</v>
+      </c>
+      <c r="K30">
+        <v>1.00753628791721</v>
+      </c>
+      <c r="L30">
+        <v>1.041623321169923</v>
+      </c>
+      <c r="M30">
+        <v>0.9622844051616448</v>
+      </c>
+      <c r="N30">
+        <v>0.9622844051616448</v>
+      </c>
+      <c r="O30">
+        <v>0.9503821586064043</v>
+      </c>
+      <c r="P30">
+        <v>0.9773683660801668</v>
+      </c>
+      <c r="Q30">
+        <v>0.9773683660801668</v>
+      </c>
+      <c r="R30">
+        <v>0.9849103465394276</v>
+      </c>
+      <c r="S30">
+        <v>0.9849103465394276</v>
+      </c>
+      <c r="T30">
+        <v>1.001786963157874</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8786526657425322</v>
+      </c>
+      <c r="D31">
+        <v>1.047877441811972</v>
+      </c>
+      <c r="E31">
+        <v>0.8786526657425322</v>
+      </c>
+      <c r="F31">
+        <v>0.9997877353465963</v>
+      </c>
+      <c r="G31">
+        <v>0.9200843072324426</v>
+      </c>
+      <c r="H31">
+        <v>1.141505721288986</v>
+      </c>
+      <c r="I31">
+        <v>0.9997877353465963</v>
+      </c>
+      <c r="J31">
+        <v>1.033857122200281</v>
+      </c>
+      <c r="K31">
+        <v>0.9997877353465963</v>
+      </c>
+      <c r="L31">
+        <v>1.047877441811972</v>
+      </c>
+      <c r="M31">
+        <v>0.963265053777252</v>
+      </c>
+      <c r="N31">
+        <v>0.963265053777252</v>
+      </c>
+      <c r="O31">
+        <v>0.9488714715956489</v>
+      </c>
+      <c r="P31">
+        <v>0.9754392809670334</v>
+      </c>
+      <c r="Q31">
+        <v>0.9754392809670334</v>
+      </c>
+      <c r="R31">
+        <v>0.9815263945619241</v>
+      </c>
+      <c r="S31">
+        <v>0.9815263945619241</v>
+      </c>
+      <c r="T31">
+        <v>1.003627498937135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.597124529178082</v>
+      </c>
+      <c r="D32">
+        <v>1.057639706438356</v>
+      </c>
+      <c r="E32">
+        <v>0.597124529178082</v>
+      </c>
+      <c r="F32">
+        <v>1.182451566301369</v>
+      </c>
+      <c r="G32">
+        <v>0.8018946346575341</v>
+      </c>
+      <c r="H32">
+        <v>1.136361284931507</v>
+      </c>
+      <c r="I32">
+        <v>1.182451566301369</v>
+      </c>
+      <c r="J32">
+        <v>1.094028008219178</v>
+      </c>
+      <c r="K32">
+        <v>1.182451566301369</v>
+      </c>
+      <c r="L32">
+        <v>1.057639706438356</v>
+      </c>
+      <c r="M32">
+        <v>0.8273821178082191</v>
+      </c>
+      <c r="N32">
+        <v>0.8273821178082191</v>
+      </c>
+      <c r="O32">
+        <v>0.8188862900913242</v>
+      </c>
+      <c r="P32">
+        <v>0.9457386006392693</v>
+      </c>
+      <c r="Q32">
+        <v>0.9457386006392693</v>
+      </c>
+      <c r="R32">
+        <v>1.004916842054794</v>
+      </c>
+      <c r="S32">
+        <v>1.004916842054794</v>
+      </c>
+      <c r="T32">
+        <v>0.9782499549543378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9028528805263157</v>
+      </c>
+      <c r="D33">
+        <v>1.063570825263158</v>
+      </c>
+      <c r="E33">
+        <v>0.9028528805263157</v>
+      </c>
+      <c r="F33">
+        <v>0.9584450536842105</v>
+      </c>
+      <c r="G33">
+        <v>0.9144075510526315</v>
+      </c>
+      <c r="H33">
+        <v>1.203647388421053</v>
+      </c>
+      <c r="I33">
+        <v>0.9584450536842105</v>
+      </c>
+      <c r="J33">
+        <v>1.032921917894737</v>
+      </c>
+      <c r="K33">
+        <v>0.9584450536842105</v>
+      </c>
+      <c r="L33">
+        <v>1.063570825263158</v>
+      </c>
+      <c r="M33">
+        <v>0.9832118528947369</v>
+      </c>
+      <c r="N33">
+        <v>0.9832118528947369</v>
+      </c>
+      <c r="O33">
+        <v>0.9602770856140351</v>
+      </c>
+      <c r="P33">
+        <v>0.9749562531578948</v>
+      </c>
+      <c r="Q33">
+        <v>0.9749562531578947</v>
+      </c>
+      <c r="R33">
+        <v>0.9708284532894736</v>
+      </c>
+      <c r="S33">
+        <v>0.9708284532894736</v>
+      </c>
+      <c r="T33">
+        <v>1.012640936140351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.8205333647368419</v>
+      </c>
+      <c r="D34">
+        <v>1.034160047368421</v>
+      </c>
+      <c r="E34">
+        <v>0.8205333647368419</v>
+      </c>
+      <c r="F34">
+        <v>1.060639613157895</v>
+      </c>
+      <c r="G34">
+        <v>0.9122380642105262</v>
+      </c>
+      <c r="H34">
+        <v>1.079395177368422</v>
+      </c>
+      <c r="I34">
+        <v>1.060639613157895</v>
+      </c>
+      <c r="J34">
+        <v>1.041880041578948</v>
+      </c>
+      <c r="K34">
+        <v>1.060639613157895</v>
+      </c>
+      <c r="L34">
+        <v>1.034160047368421</v>
+      </c>
+      <c r="M34">
+        <v>0.9273467060526317</v>
+      </c>
+      <c r="N34">
+        <v>0.9273467060526317</v>
+      </c>
+      <c r="O34">
+        <v>0.9223104921052632</v>
+      </c>
+      <c r="P34">
+        <v>0.9717776750877194</v>
+      </c>
+      <c r="Q34">
+        <v>0.9717776750877194</v>
+      </c>
+      <c r="R34">
+        <v>0.9939931596052632</v>
+      </c>
+      <c r="S34">
+        <v>0.9939931596052632</v>
+      </c>
+      <c r="T34">
+        <v>0.9914743847368422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.5680991981708512</v>
+      </c>
+      <c r="D35">
+        <v>1.178458511026052</v>
+      </c>
+      <c r="E35">
+        <v>0.5680991981708512</v>
+      </c>
+      <c r="F35">
+        <v>0.9839897868827167</v>
+      </c>
+      <c r="G35">
+        <v>0.710007184202057</v>
+      </c>
+      <c r="H35">
+        <v>1.533295831334846</v>
+      </c>
+      <c r="I35">
+        <v>0.9839897868827167</v>
+      </c>
+      <c r="J35">
+        <v>1.121762119375244</v>
+      </c>
+      <c r="K35">
+        <v>0.9839897868827167</v>
+      </c>
+      <c r="L35">
+        <v>1.178458511026052</v>
+      </c>
+      <c r="M35">
+        <v>0.8732788545984514</v>
+      </c>
+      <c r="N35">
+        <v>0.8732788545984514</v>
+      </c>
+      <c r="O35">
+        <v>0.81885496446632</v>
+      </c>
+      <c r="P35">
+        <v>0.9101824986932066</v>
+      </c>
+      <c r="Q35">
+        <v>0.9101824986932066</v>
+      </c>
+      <c r="R35">
+        <v>0.9286343207405841</v>
+      </c>
+      <c r="S35">
+        <v>0.9286343207405841</v>
+      </c>
+      <c r="T35">
+        <v>1.015935438498628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.00041789579996</v>
+      </c>
+      <c r="D36">
+        <v>1.000374167647163</v>
+      </c>
+      <c r="E36">
+        <v>1.00041789579996</v>
+      </c>
+      <c r="F36">
+        <v>0.9989675284533579</v>
+      </c>
+      <c r="G36">
+        <v>1.000009991464722</v>
+      </c>
+      <c r="H36">
+        <v>1.001078373919358</v>
+      </c>
+      <c r="I36">
+        <v>0.9989675284533579</v>
+      </c>
+      <c r="J36">
+        <v>0.9999640677626667</v>
+      </c>
+      <c r="K36">
+        <v>0.9989675284533579</v>
+      </c>
+      <c r="L36">
+        <v>1.000374167647163</v>
+      </c>
+      <c r="M36">
+        <v>1.000396031723561</v>
+      </c>
+      <c r="N36">
+        <v>1.000396031723561</v>
+      </c>
+      <c r="O36">
+        <v>1.000267351637281</v>
+      </c>
+      <c r="P36">
+        <v>0.9999198639668269</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999198639668269</v>
+      </c>
+      <c r="R36">
+        <v>0.9996817800884596</v>
+      </c>
+      <c r="S36">
+        <v>0.9996817800884596</v>
+      </c>
+      <c r="T36">
+        <v>1.000135337507871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9982611824302384</v>
+      </c>
+      <c r="D37">
+        <v>0.9999602683597255</v>
+      </c>
+      <c r="E37">
+        <v>0.9982611824302384</v>
+      </c>
+      <c r="F37">
+        <v>1.001373793755154</v>
+      </c>
+      <c r="G37">
+        <v>0.9992202747913022</v>
+      </c>
+      <c r="H37">
+        <v>0.9999296263109907</v>
+      </c>
+      <c r="I37">
+        <v>1.001373793755154</v>
+      </c>
+      <c r="J37">
+        <v>1.000372374077876</v>
+      </c>
+      <c r="K37">
+        <v>1.001373793755154</v>
+      </c>
+      <c r="L37">
+        <v>0.9999602683597255</v>
+      </c>
+      <c r="M37">
+        <v>0.999110725394982</v>
+      </c>
+      <c r="N37">
+        <v>0.999110725394982</v>
+      </c>
+      <c r="O37">
+        <v>0.9991472418604221</v>
+      </c>
+      <c r="P37">
+        <v>0.9998650815150393</v>
+      </c>
+      <c r="Q37">
+        <v>0.9998650815150393</v>
+      </c>
+      <c r="R37">
+        <v>1.000242259575068</v>
+      </c>
+      <c r="S37">
+        <v>1.000242259575068</v>
+      </c>
+      <c r="T37">
+        <v>0.9998529199542144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9957936760272201</v>
+      </c>
+      <c r="D38">
+        <v>1.001702204574565</v>
+      </c>
+      <c r="E38">
+        <v>0.9957936760272201</v>
+      </c>
+      <c r="F38">
+        <v>0.9997458681877119</v>
+      </c>
+      <c r="G38">
+        <v>0.9974731168486984</v>
+      </c>
+      <c r="H38">
+        <v>1.004424088542883</v>
+      </c>
+      <c r="I38">
+        <v>0.9997458681877119</v>
+      </c>
+      <c r="J38">
+        <v>1.001131844163525</v>
+      </c>
+      <c r="K38">
+        <v>0.9997458681877119</v>
+      </c>
+      <c r="L38">
+        <v>1.001702204574565</v>
+      </c>
+      <c r="M38">
+        <v>0.9987479403008924</v>
+      </c>
+      <c r="N38">
+        <v>0.9987479403008924</v>
+      </c>
+      <c r="O38">
+        <v>0.9983229991501611</v>
+      </c>
+      <c r="P38">
+        <v>0.9990805829298323</v>
+      </c>
+      <c r="Q38">
+        <v>0.9990805829298323</v>
+      </c>
+      <c r="R38">
+        <v>0.9992469042443022</v>
+      </c>
+      <c r="S38">
+        <v>0.9992469042443022</v>
+      </c>
+      <c r="T38">
+        <v>1.000045133057434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9908877592673322</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.005007835491542</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9908877592673322</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9967225691484282</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9942063215985203</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.012631862172997</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9967225691484282</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.002592305491321</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9967225691484282</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.005007835491542</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.997947797379437</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.997947797379437</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9967006387857981</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9975393879691007</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9975393879691007</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9973351832639326</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9973351832639326</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000341442195023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9541589247493106</v>
+      </c>
+      <c r="D40">
+        <v>1.016102164112734</v>
+      </c>
+      <c r="E40">
+        <v>0.9541589247493106</v>
+      </c>
+      <c r="F40">
+        <v>1.002480711845533</v>
+      </c>
+      <c r="G40">
+        <v>0.9727605551103163</v>
+      </c>
+      <c r="H40">
+        <v>1.043204849933397</v>
+      </c>
+      <c r="I40">
+        <v>1.002480711845533</v>
+      </c>
+      <c r="J40">
+        <v>1.012130891431216</v>
+      </c>
+      <c r="K40">
+        <v>1.002480711845533</v>
+      </c>
+      <c r="L40">
+        <v>1.016102164112734</v>
+      </c>
+      <c r="M40">
+        <v>0.9851305444310221</v>
+      </c>
+      <c r="N40">
+        <v>0.9851305444310221</v>
+      </c>
+      <c r="O40">
+        <v>0.9810072146574536</v>
+      </c>
+      <c r="P40">
+        <v>0.9909139335691922</v>
+      </c>
+      <c r="Q40">
+        <v>0.9909139335691924</v>
+      </c>
+      <c r="R40">
+        <v>0.9938056281382774</v>
+      </c>
+      <c r="S40">
+        <v>0.9938056281382774</v>
+      </c>
+      <c r="T40">
+        <v>1.000139682863751</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.024248626665816</v>
+      </c>
+      <c r="D41">
+        <v>0.9904796140380945</v>
+      </c>
+      <c r="E41">
+        <v>1.024248626665816</v>
+      </c>
+      <c r="F41">
+        <v>0.9998430852020064</v>
+      </c>
+      <c r="G41">
+        <v>1.016021497050496</v>
+      </c>
+      <c r="H41">
+        <v>0.9718872321894239</v>
+      </c>
+      <c r="I41">
+        <v>0.9998430852020064</v>
+      </c>
+      <c r="J41">
+        <v>0.993209487246339</v>
+      </c>
+      <c r="K41">
+        <v>0.9998430852020064</v>
+      </c>
+      <c r="L41">
+        <v>0.9904796140380945</v>
+      </c>
+      <c r="M41">
+        <v>1.007364120351955</v>
+      </c>
+      <c r="N41">
+        <v>1.007364120351955</v>
+      </c>
+      <c r="O41">
+        <v>1.010249912584802</v>
+      </c>
+      <c r="P41">
+        <v>1.004857108635306</v>
+      </c>
+      <c r="Q41">
+        <v>1.004857108635306</v>
+      </c>
+      <c r="R41">
+        <v>1.003603602776981</v>
+      </c>
+      <c r="S41">
+        <v>1.003603602776981</v>
+      </c>
+      <c r="T41">
+        <v>0.9992815903986959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7893670611777842</v>
+      </c>
+      <c r="D42">
+        <v>1.040747823685775</v>
+      </c>
+      <c r="E42">
+        <v>0.7893670611777842</v>
+      </c>
+      <c r="F42">
+        <v>1.074454451371448</v>
+      </c>
+      <c r="G42">
+        <v>0.8915397389619851</v>
+      </c>
+      <c r="H42">
+        <v>1.102580597809002</v>
+      </c>
+      <c r="I42">
+        <v>1.074454451371448</v>
+      </c>
+      <c r="J42">
+        <v>1.050574823399285</v>
+      </c>
+      <c r="K42">
+        <v>1.074454451371448</v>
+      </c>
+      <c r="L42">
+        <v>1.040747823685775</v>
+      </c>
+      <c r="M42">
+        <v>0.9150574424317799</v>
+      </c>
+      <c r="N42">
+        <v>0.9150574424317799</v>
+      </c>
+      <c r="O42">
+        <v>0.9072182079418484</v>
+      </c>
+      <c r="P42">
+        <v>0.9681897787450028</v>
+      </c>
+      <c r="Q42">
+        <v>0.9681897787450028</v>
+      </c>
+      <c r="R42">
+        <v>0.9947559469016142</v>
+      </c>
+      <c r="S42">
+        <v>0.9947559469016142</v>
+      </c>
+      <c r="T42">
+        <v>0.9915440827342134</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00747843794116</v>
+        <v>0.9976297943887529</v>
       </c>
       <c r="D3">
-        <v>0.9828076950018613</v>
+        <v>1.00084192315794</v>
       </c>
       <c r="E3">
-        <v>1.002632565798975</v>
+        <v>0.9976297943887529</v>
       </c>
       <c r="F3">
-        <v>1.00747843794116</v>
+        <v>1.000168869761199</v>
       </c>
       <c r="G3">
-        <v>1.00637518371409</v>
+        <v>0.9984883042302624</v>
       </c>
       <c r="H3">
-        <v>0.9914306405156864</v>
+        <v>1.002496865672313</v>
       </c>
       <c r="I3">
-        <v>1.004045355875195</v>
+        <v>1.000168869761199</v>
       </c>
       <c r="J3">
-        <v>0.9828076950018613</v>
+        <v>1.000645696746397</v>
       </c>
       <c r="K3">
-        <v>1.00747843794116</v>
+        <v>1.000168869761199</v>
       </c>
       <c r="L3">
-        <v>1.002632565798975</v>
+        <v>1.00084192315794</v>
       </c>
       <c r="M3">
-        <v>0.9927201304004181</v>
+        <v>0.9992358587733466</v>
       </c>
       <c r="N3">
-        <v>0.9927201304004181</v>
+        <v>0.9992358587733466</v>
       </c>
       <c r="O3">
-        <v>0.9922903004388409</v>
+        <v>0.998986673925652</v>
       </c>
       <c r="P3">
-        <v>0.997639566247332</v>
+        <v>0.9995468624359644</v>
       </c>
       <c r="Q3">
-        <v>0.9976395662473317</v>
+        <v>0.9995468624359644</v>
       </c>
       <c r="R3">
-        <v>1.000099284170789</v>
+        <v>0.9997023642672731</v>
       </c>
       <c r="S3">
-        <v>1.000099284170789</v>
+        <v>0.9997023642672731</v>
       </c>
       <c r="T3">
-        <v>0.9991283131411614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>1.000045242326144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.014527692162892</v>
+        <v>0.9541589247493106</v>
       </c>
       <c r="D4">
-        <v>0.9667475620779831</v>
+        <v>1.016102164112734</v>
       </c>
       <c r="E4">
-        <v>1.005051875430808</v>
+        <v>0.9541589247493106</v>
       </c>
       <c r="F4">
-        <v>1.014527692162892</v>
+        <v>1.002480711845533</v>
       </c>
       <c r="G4">
-        <v>1.012209786638583</v>
+        <v>0.9727605551103163</v>
       </c>
       <c r="H4">
-        <v>0.9834561913201307</v>
+        <v>1.043204849933397</v>
       </c>
       <c r="I4">
-        <v>1.007814504241806</v>
+        <v>1.002480711845533</v>
       </c>
       <c r="J4">
-        <v>0.9667475620779831</v>
+        <v>1.012130891431216</v>
       </c>
       <c r="K4">
-        <v>1.014527692162892</v>
+        <v>1.002480711845533</v>
       </c>
       <c r="L4">
-        <v>1.005051875430808</v>
+        <v>1.016102164112734</v>
       </c>
       <c r="M4">
-        <v>0.9858997187543955</v>
+        <v>0.9851305444310221</v>
       </c>
       <c r="N4">
-        <v>0.9858997187543955</v>
+        <v>0.9851305444310221</v>
       </c>
       <c r="O4">
-        <v>0.9850852096096405</v>
+        <v>0.9810072146574536</v>
       </c>
       <c r="P4">
-        <v>0.9954423765572278</v>
+        <v>0.9909139335691922</v>
       </c>
       <c r="Q4">
-        <v>0.9954423765572278</v>
+        <v>0.9909139335691924</v>
       </c>
       <c r="R4">
-        <v>1.000213705458644</v>
+        <v>0.9938056281382774</v>
       </c>
       <c r="S4">
-        <v>1.000213705458644</v>
+        <v>0.9938056281382774</v>
       </c>
       <c r="T4">
-        <v>0.9983012686453673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>1.000139682863751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.027006427363721</v>
+        <v>0.8606846911887593</v>
       </c>
       <c r="D5">
-        <v>0.9368140307377395</v>
+        <v>1.048857218544666</v>
       </c>
       <c r="E5">
-        <v>1.009943476324519</v>
+        <v>0.8606846911887593</v>
       </c>
       <c r="F5">
-        <v>1.027006427363721</v>
+        <v>1.010209171577811</v>
       </c>
       <c r="G5">
-        <v>1.02432197939809</v>
+        <v>0.9130019634221932</v>
       </c>
       <c r="H5">
-        <v>0.9683209389776209</v>
+        <v>1.141253680727659</v>
       </c>
       <c r="I5">
-        <v>1.014918099658588</v>
+        <v>1.010209171577811</v>
       </c>
       <c r="J5">
-        <v>0.9368140307377395</v>
+        <v>1.037589569416426</v>
       </c>
       <c r="K5">
-        <v>1.027006427363721</v>
+        <v>1.010209171577811</v>
       </c>
       <c r="L5">
-        <v>1.009943476324519</v>
+        <v>1.048857218544666</v>
       </c>
       <c r="M5">
-        <v>0.9733787535311291</v>
+        <v>0.9547709548667125</v>
       </c>
       <c r="N5">
-        <v>0.9733787535311291</v>
+        <v>0.9547709548667125</v>
       </c>
       <c r="O5">
-        <v>0.9716928153466263</v>
+        <v>0.9408479577185394</v>
       </c>
       <c r="P5">
-        <v>0.9912546448086599</v>
+        <v>0.9732503604370786</v>
       </c>
       <c r="Q5">
-        <v>0.9912546448086599</v>
+        <v>0.9732503604370786</v>
       </c>
       <c r="R5">
-        <v>1.000192590447425</v>
+        <v>0.9824900632222616</v>
       </c>
       <c r="S5">
-        <v>1.000192590447425</v>
+        <v>0.9824900632222616</v>
       </c>
       <c r="T5">
-        <v>0.9968874920767131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.001932715812919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.03918612225265</v>
+        <v>0.5680991981708512</v>
       </c>
       <c r="D6">
-        <v>0.9075776191288629</v>
+        <v>1.178458511026052</v>
       </c>
       <c r="E6">
-        <v>1.014752681483102</v>
+        <v>0.5680991981708512</v>
       </c>
       <c r="F6">
-        <v>1.03918612225265</v>
+        <v>0.9839897868827167</v>
       </c>
       <c r="G6">
-        <v>1.036050969689349</v>
+        <v>0.710007184202057</v>
       </c>
       <c r="H6">
-        <v>0.953528816694142</v>
+        <v>1.533295831334846</v>
       </c>
       <c r="I6">
-        <v>1.021876146192263</v>
+        <v>0.9839897868827167</v>
       </c>
       <c r="J6">
-        <v>0.9075776191288629</v>
+        <v>1.121762119375244</v>
       </c>
       <c r="K6">
-        <v>1.03918612225265</v>
+        <v>0.9839897868827167</v>
       </c>
       <c r="L6">
-        <v>1.014752681483102</v>
+        <v>1.178458511026052</v>
       </c>
       <c r="M6">
-        <v>0.9611651503059825</v>
+        <v>0.8732788545984514</v>
       </c>
       <c r="N6">
-        <v>0.9611651503059825</v>
+        <v>0.8732788545984514</v>
       </c>
       <c r="O6">
-        <v>0.9586197057687024</v>
+        <v>0.81885496446632</v>
       </c>
       <c r="P6">
-        <v>0.9871721409548715</v>
+        <v>0.9101824986932066</v>
       </c>
       <c r="Q6">
-        <v>0.9871721409548715</v>
+        <v>0.9101824986932066</v>
       </c>
       <c r="R6">
-        <v>1.000175636279316</v>
+        <v>0.9286343207405841</v>
       </c>
       <c r="S6">
-        <v>1.000175636279316</v>
+        <v>0.9286343207405841</v>
       </c>
       <c r="T6">
-        <v>0.9954953925733947</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.015935438498628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000022080053886</v>
+        <v>0.9811528386450071</v>
       </c>
       <c r="D7">
-        <v>0.9990947339819847</v>
+        <v>1.00288149617741</v>
       </c>
       <c r="E7">
-        <v>1.000344542416014</v>
+        <v>0.9811528386450071</v>
       </c>
       <c r="F7">
-        <v>1.000022080053886</v>
+        <v>1.008169895687521</v>
       </c>
       <c r="G7">
-        <v>1.001026611225158</v>
+        <v>0.9906499602537416</v>
       </c>
       <c r="H7">
-        <v>0.9994086524718904</v>
+        <v>1.006914084918345</v>
       </c>
       <c r="I7">
-        <v>1.000250529133266</v>
+        <v>1.008169895687521</v>
       </c>
       <c r="J7">
-        <v>0.9990947339819847</v>
+        <v>1.004423302620734</v>
       </c>
       <c r="K7">
-        <v>1.000022080053886</v>
+        <v>1.008169895687521</v>
       </c>
       <c r="L7">
-        <v>1.000344542416014</v>
+        <v>1.00288149617741</v>
       </c>
       <c r="M7">
-        <v>0.9997196381989991</v>
+        <v>0.9920171674112088</v>
       </c>
       <c r="N7">
-        <v>0.9997196381989991</v>
+        <v>0.9920171674112088</v>
       </c>
       <c r="O7">
-        <v>0.9996159762899629</v>
+        <v>0.9915614316920531</v>
       </c>
       <c r="P7">
-        <v>0.9998204521506281</v>
+        <v>0.9974014101699797</v>
       </c>
       <c r="Q7">
-        <v>0.9998204521506281</v>
+        <v>0.9974014101699797</v>
       </c>
       <c r="R7">
-        <v>0.9998708591264425</v>
+        <v>1.000093531549365</v>
       </c>
       <c r="S7">
-        <v>0.9998708591264425</v>
+        <v>1.000093531549365</v>
       </c>
       <c r="T7">
-        <v>1.000024524880366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9990319297171268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000168869761199</v>
+        <v>0.9982611824302384</v>
       </c>
       <c r="D8">
-        <v>0.9976297943887531</v>
+        <v>0.9999602683597255</v>
       </c>
       <c r="E8">
-        <v>1.00084192315794</v>
+        <v>0.9982611824302384</v>
       </c>
       <c r="F8">
-        <v>1.000168869761199</v>
+        <v>1.001373793755154</v>
       </c>
       <c r="G8">
-        <v>1.002496865672313</v>
+        <v>0.9992202747913022</v>
       </c>
       <c r="H8">
-        <v>0.9984883042302625</v>
+        <v>0.9999296263109907</v>
       </c>
       <c r="I8">
-        <v>1.000645696746396</v>
+        <v>1.001373793755154</v>
       </c>
       <c r="J8">
-        <v>0.9976297943887531</v>
+        <v>1.000372374077876</v>
       </c>
       <c r="K8">
-        <v>1.000168869761199</v>
+        <v>1.001373793755154</v>
       </c>
       <c r="L8">
-        <v>1.00084192315794</v>
+        <v>0.9999602683597255</v>
       </c>
       <c r="M8">
-        <v>0.9992358587733468</v>
+        <v>0.999110725394982</v>
       </c>
       <c r="N8">
-        <v>0.9992358587733468</v>
+        <v>0.999110725394982</v>
       </c>
       <c r="O8">
-        <v>0.998986673925652</v>
+        <v>0.9991472418604221</v>
       </c>
       <c r="P8">
-        <v>0.9995468624359644</v>
+        <v>0.9998650815150393</v>
       </c>
       <c r="Q8">
-        <v>0.9995468624359644</v>
+        <v>0.9998650815150393</v>
       </c>
       <c r="R8">
-        <v>0.9997023642672731</v>
+        <v>1.000242259575068</v>
       </c>
       <c r="S8">
-        <v>0.9997023642672731</v>
+        <v>1.000242259575068</v>
       </c>
       <c r="T8">
-        <v>1.000045242326144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9998529199542144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000493130829909</v>
+        <v>0.9667475620779831</v>
       </c>
       <c r="D9">
-        <v>0.9965250504568445</v>
+        <v>1.005051875430808</v>
       </c>
       <c r="E9">
-        <v>1.001098567488619</v>
+        <v>0.9667475620779831</v>
       </c>
       <c r="F9">
-        <v>1.000493130829909</v>
+        <v>1.014527692162892</v>
       </c>
       <c r="G9">
-        <v>1.003213418684433</v>
+        <v>0.9834561913201307</v>
       </c>
       <c r="H9">
-        <v>0.997873800138301</v>
+        <v>1.012209786638583</v>
       </c>
       <c r="I9">
-        <v>1.000922054478929</v>
+        <v>1.014527692162892</v>
       </c>
       <c r="J9">
-        <v>0.9965250504568445</v>
+        <v>1.007814504241806</v>
       </c>
       <c r="K9">
-        <v>1.000493130829909</v>
+        <v>1.014527692162892</v>
       </c>
       <c r="L9">
-        <v>1.001098567488619</v>
+        <v>1.005051875430808</v>
       </c>
       <c r="M9">
-        <v>0.9988118089727316</v>
+        <v>0.9858997187543955</v>
       </c>
       <c r="N9">
-        <v>0.9988118089727316</v>
+        <v>0.9858997187543955</v>
       </c>
       <c r="O9">
-        <v>0.9984991393612548</v>
+        <v>0.9850852096096405</v>
       </c>
       <c r="P9">
-        <v>0.9993722495917906</v>
+        <v>0.9954423765572278</v>
       </c>
       <c r="Q9">
-        <v>0.9993722495917906</v>
+        <v>0.9954423765572278</v>
       </c>
       <c r="R9">
-        <v>0.9996524699013202</v>
+        <v>1.000213705458644</v>
       </c>
       <c r="S9">
-        <v>0.9996524699013202</v>
+        <v>1.000213705458644</v>
       </c>
       <c r="T9">
-        <v>1.000021003679506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9983012686453673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000737923225331</v>
+        <v>0.5637206380790852</v>
       </c>
       <c r="D10">
-        <v>0.9927193520252228</v>
+        <v>1.181724987721197</v>
       </c>
       <c r="E10">
-        <v>1.002467839769988</v>
+        <v>0.5637206380790852</v>
       </c>
       <c r="F10">
-        <v>1.000737923225331</v>
+        <v>0.9814819719042625</v>
       </c>
       <c r="G10">
-        <v>1.007297409086454</v>
+        <v>0.705731316501619</v>
       </c>
       <c r="H10">
-        <v>0.9954270360955371</v>
+        <v>1.544156786054489</v>
       </c>
       <c r="I10">
-        <v>1.001963492161786</v>
+        <v>0.9814819719042625</v>
       </c>
       <c r="J10">
-        <v>0.9927193520252228</v>
+        <v>1.123345130276297</v>
       </c>
       <c r="K10">
-        <v>1.000737923225331</v>
+        <v>0.9814819719042625</v>
       </c>
       <c r="L10">
-        <v>1.002467839769988</v>
+        <v>1.181724987721197</v>
       </c>
       <c r="M10">
-        <v>0.9975935958976057</v>
+        <v>0.872722812900141</v>
       </c>
       <c r="N10">
-        <v>0.9975935958976057</v>
+        <v>0.872722812900141</v>
       </c>
       <c r="O10">
-        <v>0.9968714092969161</v>
+        <v>0.8170589807673002</v>
       </c>
       <c r="P10">
-        <v>0.9986417050068476</v>
+        <v>0.9089758659015148</v>
       </c>
       <c r="Q10">
-        <v>0.9986417050068476</v>
+        <v>0.9089758659015148</v>
       </c>
       <c r="R10">
-        <v>0.9991657595614685</v>
+        <v>0.9271023924022017</v>
       </c>
       <c r="S10">
-        <v>0.9991657595614685</v>
+        <v>0.9271023924022017</v>
       </c>
       <c r="T10">
-        <v>1.000102175394053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.016693471756158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001880697664057</v>
+        <v>0.9459676883803715</v>
       </c>
       <c r="D11">
-        <v>0.9875487216009832</v>
+        <v>1.010755360810538</v>
       </c>
       <c r="E11">
-        <v>1.003883880684114</v>
+        <v>0.9459676883803715</v>
       </c>
       <c r="F11">
-        <v>1.001880697664057</v>
+        <v>1.017278976113492</v>
       </c>
       <c r="G11">
-        <v>1.011399585341981</v>
+        <v>0.9738833110897954</v>
       </c>
       <c r="H11">
-        <v>0.9923886633923003</v>
+        <v>1.023208403623087</v>
       </c>
       <c r="I11">
-        <v>1.003299861228188</v>
+        <v>1.017278976113492</v>
       </c>
       <c r="J11">
-        <v>0.9875487216009832</v>
+        <v>1.012657284436311</v>
       </c>
       <c r="K11">
-        <v>1.001880697664057</v>
+        <v>1.017278976113492</v>
       </c>
       <c r="L11">
-        <v>1.003883880684114</v>
+        <v>1.010755360810538</v>
       </c>
       <c r="M11">
-        <v>0.9957163011425485</v>
+        <v>0.9783615245954547</v>
       </c>
       <c r="N11">
-        <v>0.9957163011425485</v>
+        <v>0.9783615245954547</v>
       </c>
       <c r="O11">
-        <v>0.9946070885591324</v>
+        <v>0.9768687867602349</v>
       </c>
       <c r="P11">
-        <v>0.9977710999830512</v>
+        <v>0.9913340084348006</v>
       </c>
       <c r="Q11">
-        <v>0.9977710999830514</v>
+        <v>0.9913340084348006</v>
       </c>
       <c r="R11">
-        <v>0.9987984994033027</v>
+        <v>0.9978202503544735</v>
       </c>
       <c r="S11">
-        <v>0.9987984994033027</v>
+        <v>0.9978202503544735</v>
       </c>
       <c r="T11">
-        <v>1.000066901651937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9972918374089326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.034301150042558</v>
+        <v>0.8694864689263171</v>
       </c>
       <c r="D12">
-        <v>1.082245204613516</v>
+        <v>1.054996765842104</v>
       </c>
       <c r="E12">
-        <v>0.9486878086816647</v>
+        <v>0.8694864689263171</v>
       </c>
       <c r="F12">
-        <v>1.034301150042558</v>
+        <v>0.9934770748000012</v>
       </c>
       <c r="G12">
-        <v>0.8459591511100624</v>
+        <v>0.9116487960947384</v>
       </c>
       <c r="H12">
-        <v>1.065714757544415</v>
+        <v>1.163923678863151</v>
       </c>
       <c r="I12">
-        <v>0.973647973206703</v>
+        <v>0.9934770748000012</v>
       </c>
       <c r="J12">
-        <v>1.082245204613516</v>
+        <v>1.037061001389473</v>
       </c>
       <c r="K12">
-        <v>1.034301150042558</v>
+        <v>0.9934770748000012</v>
       </c>
       <c r="L12">
-        <v>0.9486878086816647</v>
+        <v>1.054996765842104</v>
       </c>
       <c r="M12">
-        <v>1.01546650664759</v>
+        <v>0.9622416173842105</v>
       </c>
       <c r="N12">
-        <v>1.01546650664759</v>
+        <v>0.9622416173842105</v>
       </c>
       <c r="O12">
-        <v>1.032215923613198</v>
+        <v>0.9453773436210531</v>
       </c>
       <c r="P12">
-        <v>1.021744721112579</v>
+        <v>0.9726534365228074</v>
       </c>
       <c r="Q12">
-        <v>1.02174472111258</v>
+        <v>0.9726534365228074</v>
       </c>
       <c r="R12">
-        <v>1.024883828345074</v>
+        <v>0.9778593460921059</v>
       </c>
       <c r="S12">
-        <v>1.024883828345074</v>
+        <v>0.9778593460921059</v>
       </c>
       <c r="T12">
-        <v>0.9917593408664866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.005098964319297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9645566276542581</v>
+        <v>1.106215579468222</v>
       </c>
       <c r="D13">
-        <v>1.050095508034033</v>
+        <v>0.971237658700384</v>
       </c>
       <c r="E13">
-        <v>1.000643325205356</v>
+        <v>1.106215579468222</v>
       </c>
       <c r="F13">
-        <v>0.9645566276542581</v>
+        <v>0.978449065136318</v>
       </c>
       <c r="G13">
-        <v>1.009428476563701</v>
+        <v>1.058578803488573</v>
       </c>
       <c r="H13">
-        <v>1.018276206250649</v>
+        <v>0.9242839881582779</v>
       </c>
       <c r="I13">
-        <v>0.9901224210328136</v>
+        <v>0.978449065136318</v>
       </c>
       <c r="J13">
-        <v>1.050095508034033</v>
+        <v>0.9733401104103313</v>
       </c>
       <c r="K13">
-        <v>0.9645566276542581</v>
+        <v>0.978449065136318</v>
       </c>
       <c r="L13">
-        <v>1.000643325205356</v>
+        <v>0.971237658700384</v>
       </c>
       <c r="M13">
-        <v>1.025369416619694</v>
+        <v>1.038726619084303</v>
       </c>
       <c r="N13">
-        <v>1.025369416619694</v>
+        <v>1.038726619084303</v>
       </c>
       <c r="O13">
-        <v>1.023005013163346</v>
+        <v>1.045344013885727</v>
       </c>
       <c r="P13">
-        <v>1.005098486964549</v>
+        <v>1.018634101101642</v>
       </c>
       <c r="Q13">
-        <v>1.005098486964549</v>
+        <v>1.018634101101642</v>
       </c>
       <c r="R13">
-        <v>0.9949630221369761</v>
+        <v>1.008587842110311</v>
       </c>
       <c r="S13">
-        <v>0.9949630221369761</v>
+        <v>1.008587842110311</v>
       </c>
       <c r="T13">
-        <v>1.005520427456801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.002017534227018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.032618269452672</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="D14">
-        <v>1.087595502107483</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="E14">
-        <v>0.9485544529570193</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="F14">
-        <v>1.032618269452672</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="G14">
-        <v>0.8506261723366549</v>
+        <v>0.4918962299999994</v>
       </c>
       <c r="H14">
-        <v>1.065495944084504</v>
+        <v>1.947381500000003</v>
       </c>
       <c r="I14">
-        <v>0.9730628495404513</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="J14">
-        <v>1.087595502107483</v>
+        <v>1.212557700000001</v>
       </c>
       <c r="K14">
-        <v>1.032618269452672</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="L14">
-        <v>0.9485544529570193</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="M14">
-        <v>1.018074977532251</v>
+        <v>0.7829696599999996</v>
       </c>
       <c r="N14">
-        <v>1.018074977532251</v>
+        <v>0.7829696599999996</v>
       </c>
       <c r="O14">
-        <v>1.033881966383002</v>
+        <v>0.6859451833333328</v>
       </c>
       <c r="P14">
-        <v>1.022922741505725</v>
+        <v>0.8425913466666661</v>
       </c>
       <c r="Q14">
-        <v>1.022922741505725</v>
+        <v>0.8425913466666661</v>
       </c>
       <c r="R14">
-        <v>1.025346623492462</v>
+        <v>0.8724021899999994</v>
       </c>
       <c r="S14">
-        <v>1.025346623492462</v>
+        <v>0.8724021899999994</v>
       </c>
       <c r="T14">
-        <v>0.9929921984131306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.029934911666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9638230075216269</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="D15">
-        <v>1.045180379203713</v>
+        <v>0.99179431</v>
       </c>
       <c r="E15">
-        <v>1.001623181772805</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="F15">
-        <v>0.9638230075216269</v>
+        <v>1.3679559</v>
       </c>
       <c r="G15">
-        <v>1.006931797808952</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="H15">
-        <v>1.018693201383843</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="I15">
-        <v>0.9906027232314597</v>
+        <v>1.3679559</v>
       </c>
       <c r="J15">
-        <v>1.045180379203713</v>
+        <v>1.1014624</v>
       </c>
       <c r="K15">
-        <v>0.9638230075216269</v>
+        <v>1.3679559</v>
       </c>
       <c r="L15">
-        <v>1.001623181772805</v>
+        <v>0.99179431</v>
       </c>
       <c r="M15">
-        <v>1.023401780488259</v>
+        <v>0.75735024</v>
       </c>
       <c r="N15">
-        <v>1.023401780488259</v>
+        <v>0.75735024</v>
       </c>
       <c r="O15">
-        <v>1.02183225412012</v>
+        <v>0.76950231</v>
       </c>
       <c r="P15">
-        <v>1.003542189499381</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q15">
-        <v>1.003542189499382</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R15">
-        <v>0.9936123940049429</v>
+        <v>1.06265307</v>
       </c>
       <c r="S15">
-        <v>0.9936123940049429</v>
+        <v>1.06265307</v>
       </c>
       <c r="T15">
-        <v>1.004475715153734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9566266583333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9989675284533579</v>
+        <v>0.67342322</v>
       </c>
       <c r="D16">
-        <v>1.00041789579996</v>
+        <v>1.1253076</v>
       </c>
       <c r="E16">
-        <v>1.000374167647163</v>
+        <v>0.67342322</v>
       </c>
       <c r="F16">
-        <v>0.9989675284533579</v>
+        <v>0.9917924599999999</v>
       </c>
       <c r="G16">
-        <v>1.001078373919358</v>
+        <v>0.81021987</v>
       </c>
       <c r="H16">
-        <v>1.000009991464722</v>
+        <v>1.3157154</v>
       </c>
       <c r="I16">
-        <v>0.9999640677626667</v>
+        <v>0.9917924599999999</v>
       </c>
       <c r="J16">
-        <v>1.00041789579996</v>
+        <v>1.0863819</v>
       </c>
       <c r="K16">
-        <v>0.9989675284533579</v>
+        <v>0.9917924599999999</v>
       </c>
       <c r="L16">
-        <v>1.000374167647163</v>
+        <v>1.1253076</v>
       </c>
       <c r="M16">
-        <v>1.000396031723561</v>
+        <v>0.8993654099999999</v>
       </c>
       <c r="N16">
-        <v>1.000396031723561</v>
+        <v>0.8993654099999999</v>
       </c>
       <c r="O16">
-        <v>1.000267351637281</v>
+        <v>0.86965023</v>
       </c>
       <c r="P16">
-        <v>0.9999198639668269</v>
+        <v>0.9301744266666665</v>
       </c>
       <c r="Q16">
-        <v>0.9999198639668269</v>
+        <v>0.9301744266666665</v>
       </c>
       <c r="R16">
-        <v>0.9996817800884596</v>
+        <v>0.9455789349999999</v>
       </c>
       <c r="S16">
-        <v>0.9996817800884596</v>
+        <v>0.9455789349999999</v>
       </c>
       <c r="T16">
-        <v>1.000135337507871</v>
+        <v>1.000473408333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001373793755154</v>
+        <v>1.4071801</v>
       </c>
       <c r="D17">
-        <v>0.9982611824302386</v>
+        <v>0.9703909799999999</v>
       </c>
       <c r="E17">
-        <v>0.9999602683597255</v>
+        <v>1.4071801</v>
       </c>
       <c r="F17">
-        <v>1.001373793755154</v>
+        <v>0.78719938</v>
       </c>
       <c r="G17">
-        <v>0.9999296263109904</v>
+        <v>1.15182</v>
       </c>
       <c r="H17">
-        <v>0.9992202747913022</v>
+        <v>1.0076934</v>
       </c>
       <c r="I17">
-        <v>1.000372374077876</v>
+        <v>0.78719938</v>
       </c>
       <c r="J17">
-        <v>0.9982611824302386</v>
+        <v>0.9169823499999999</v>
       </c>
       <c r="K17">
-        <v>1.001373793755154</v>
+        <v>0.78719938</v>
       </c>
       <c r="L17">
-        <v>0.9999602683597255</v>
+        <v>0.9703909799999999</v>
       </c>
       <c r="M17">
-        <v>0.999110725394982</v>
+        <v>1.18878554</v>
       </c>
       <c r="N17">
-        <v>0.999110725394982</v>
+        <v>1.18878554</v>
       </c>
       <c r="O17">
-        <v>0.9991472418604221</v>
+        <v>1.176463693333333</v>
       </c>
       <c r="P17">
-        <v>0.9998650815150393</v>
+        <v>1.054923486666667</v>
       </c>
       <c r="Q17">
-        <v>0.9998650815150393</v>
+        <v>1.054923486666667</v>
       </c>
       <c r="R17">
-        <v>1.000242259575068</v>
+        <v>0.98799246</v>
       </c>
       <c r="S17">
-        <v>1.000242259575068</v>
+        <v>0.98799246</v>
       </c>
       <c r="T17">
-        <v>0.9998529199542144</v>
+        <v>1.040211035</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9997458681877119</v>
+        <v>0.597124529178082</v>
       </c>
       <c r="D18">
-        <v>0.9957936760272205</v>
+        <v>1.057639706438356</v>
       </c>
       <c r="E18">
-        <v>1.001702204574565</v>
+        <v>0.597124529178082</v>
       </c>
       <c r="F18">
-        <v>0.9997458681877119</v>
+        <v>1.182451566301369</v>
       </c>
       <c r="G18">
-        <v>1.004424088542883</v>
+        <v>0.8018946346575341</v>
       </c>
       <c r="H18">
-        <v>0.9974731168486984</v>
+        <v>1.136361284931507</v>
       </c>
       <c r="I18">
-        <v>1.001131844163525</v>
+        <v>1.182451566301369</v>
       </c>
       <c r="J18">
-        <v>0.9957936760272205</v>
+        <v>1.094028008219178</v>
       </c>
       <c r="K18">
-        <v>0.9997458681877119</v>
+        <v>1.182451566301369</v>
       </c>
       <c r="L18">
-        <v>1.001702204574565</v>
+        <v>1.057639706438356</v>
       </c>
       <c r="M18">
-        <v>0.9987479403008925</v>
+        <v>0.8273821178082191</v>
       </c>
       <c r="N18">
-        <v>0.9987479403008925</v>
+        <v>0.8273821178082191</v>
       </c>
       <c r="O18">
-        <v>0.9983229991501612</v>
+        <v>0.8188862900913242</v>
       </c>
       <c r="P18">
-        <v>0.9990805829298323</v>
+        <v>0.9457386006392693</v>
       </c>
       <c r="Q18">
-        <v>0.9990805829298323</v>
+        <v>0.9457386006392693</v>
       </c>
       <c r="R18">
-        <v>0.9992469042443022</v>
+        <v>1.004916842054794</v>
       </c>
       <c r="S18">
-        <v>0.9992469042443022</v>
+        <v>1.004916842054794</v>
       </c>
       <c r="T18">
-        <v>1.000045133057434</v>
+        <v>0.9782499549543378</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9967225691484282</v>
+        <v>0.9028528805263157</v>
       </c>
       <c r="D19">
-        <v>0.9908877592673322</v>
+        <v>1.063570825263158</v>
       </c>
       <c r="E19">
-        <v>1.005007835491542</v>
+        <v>0.9028528805263157</v>
       </c>
       <c r="F19">
-        <v>0.9967225691484282</v>
+        <v>0.9584450536842105</v>
       </c>
       <c r="G19">
-        <v>1.012631862172997</v>
+        <v>0.9144075510526315</v>
       </c>
       <c r="H19">
-        <v>0.9942063215985203</v>
+        <v>1.203647388421053</v>
       </c>
       <c r="I19">
-        <v>1.002592305491322</v>
+        <v>0.9584450536842105</v>
       </c>
       <c r="J19">
-        <v>0.9908877592673322</v>
+        <v>1.032921917894737</v>
       </c>
       <c r="K19">
-        <v>0.9967225691484282</v>
+        <v>0.9584450536842105</v>
       </c>
       <c r="L19">
-        <v>1.005007835491542</v>
+        <v>1.063570825263158</v>
       </c>
       <c r="M19">
-        <v>0.9979477973794371</v>
+        <v>0.9832118528947369</v>
       </c>
       <c r="N19">
-        <v>0.9979477973794371</v>
+        <v>0.9832118528947369</v>
       </c>
       <c r="O19">
-        <v>0.9967006387857982</v>
+        <v>0.9602770856140351</v>
       </c>
       <c r="P19">
-        <v>0.9975393879691007</v>
+        <v>0.9749562531578948</v>
       </c>
       <c r="Q19">
-        <v>0.9975393879691007</v>
+        <v>0.9749562531578947</v>
       </c>
       <c r="R19">
-        <v>0.9973351832639326</v>
+        <v>0.9708284532894736</v>
       </c>
       <c r="S19">
-        <v>0.9973351832639326</v>
+        <v>0.9708284532894736</v>
       </c>
       <c r="T19">
-        <v>1.000341442195024</v>
+        <v>1.012640936140351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.8205333647368419</v>
+      </c>
+      <c r="D20">
+        <v>1.034160047368421</v>
+      </c>
+      <c r="E20">
+        <v>0.8205333647368419</v>
+      </c>
+      <c r="F20">
+        <v>1.060639613157895</v>
+      </c>
+      <c r="G20">
+        <v>0.9122380642105262</v>
+      </c>
+      <c r="H20">
+        <v>1.079395177368422</v>
+      </c>
+      <c r="I20">
+        <v>1.060639613157895</v>
+      </c>
+      <c r="J20">
+        <v>1.041880041578948</v>
+      </c>
+      <c r="K20">
+        <v>1.060639613157895</v>
+      </c>
+      <c r="L20">
+        <v>1.034160047368421</v>
+      </c>
+      <c r="M20">
+        <v>0.9273467060526317</v>
+      </c>
+      <c r="N20">
+        <v>0.9273467060526317</v>
+      </c>
+      <c r="O20">
+        <v>0.9223104921052632</v>
+      </c>
+      <c r="P20">
+        <v>0.9717776750877194</v>
+      </c>
+      <c r="Q20">
+        <v>0.9717776750877194</v>
+      </c>
+      <c r="R20">
+        <v>0.9939931596052632</v>
+      </c>
+      <c r="S20">
+        <v>0.9939931596052632</v>
+      </c>
+      <c r="T20">
+        <v>0.9914743847368422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.087595502107483</v>
+      </c>
+      <c r="D21">
+        <v>0.9485544529570193</v>
+      </c>
+      <c r="E21">
+        <v>1.087595502107483</v>
+      </c>
+      <c r="F21">
+        <v>1.032618269452672</v>
+      </c>
+      <c r="G21">
+        <v>1.065495944084504</v>
+      </c>
+      <c r="H21">
+        <v>0.8506261723366549</v>
+      </c>
+      <c r="I21">
+        <v>1.032618269452672</v>
+      </c>
+      <c r="J21">
+        <v>0.9730628495404513</v>
+      </c>
+      <c r="K21">
+        <v>1.032618269452672</v>
+      </c>
+      <c r="L21">
+        <v>0.9485544529570193</v>
+      </c>
+      <c r="M21">
+        <v>1.018074977532251</v>
+      </c>
+      <c r="N21">
+        <v>1.018074977532251</v>
+      </c>
+      <c r="O21">
+        <v>1.033881966383002</v>
+      </c>
+      <c r="P21">
+        <v>1.022922741505725</v>
+      </c>
+      <c r="Q21">
+        <v>1.022922741505725</v>
+      </c>
+      <c r="R21">
+        <v>1.025346623492462</v>
+      </c>
+      <c r="S21">
+        <v>1.025346623492462</v>
+      </c>
+      <c r="T21">
+        <v>0.9929921984131306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.045180379203713</v>
+      </c>
+      <c r="D22">
+        <v>1.001623181772805</v>
+      </c>
+      <c r="E22">
+        <v>1.045180379203713</v>
+      </c>
+      <c r="F22">
+        <v>0.9638230075216269</v>
+      </c>
+      <c r="G22">
+        <v>1.018693201383843</v>
+      </c>
+      <c r="H22">
+        <v>1.006931797808952</v>
+      </c>
+      <c r="I22">
+        <v>0.9638230075216269</v>
+      </c>
+      <c r="J22">
+        <v>0.9906027232314597</v>
+      </c>
+      <c r="K22">
+        <v>0.9638230075216269</v>
+      </c>
+      <c r="L22">
+        <v>1.001623181772805</v>
+      </c>
+      <c r="M22">
+        <v>1.023401780488259</v>
+      </c>
+      <c r="N22">
+        <v>1.023401780488259</v>
+      </c>
+      <c r="O22">
+        <v>1.02183225412012</v>
+      </c>
+      <c r="P22">
+        <v>1.003542189499381</v>
+      </c>
+      <c r="Q22">
+        <v>1.003542189499382</v>
+      </c>
+      <c r="R22">
+        <v>0.9936123940049429</v>
+      </c>
+      <c r="S22">
+        <v>0.9936123940049429</v>
+      </c>
+      <c r="T22">
+        <v>1.004475715153733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.082245204613516</v>
+      </c>
+      <c r="D23">
+        <v>0.9486878086816647</v>
+      </c>
+      <c r="E23">
+        <v>1.082245204613516</v>
+      </c>
+      <c r="F23">
+        <v>1.034301150042558</v>
+      </c>
+      <c r="G23">
+        <v>1.065714757544415</v>
+      </c>
+      <c r="H23">
+        <v>0.8459591511100624</v>
+      </c>
+      <c r="I23">
+        <v>1.034301150042558</v>
+      </c>
+      <c r="J23">
+        <v>0.973647973206703</v>
+      </c>
+      <c r="K23">
+        <v>1.034301150042558</v>
+      </c>
+      <c r="L23">
+        <v>0.9486878086816647</v>
+      </c>
+      <c r="M23">
+        <v>1.01546650664759</v>
+      </c>
+      <c r="N23">
+        <v>1.01546650664759</v>
+      </c>
+      <c r="O23">
+        <v>1.032215923613198</v>
+      </c>
+      <c r="P23">
+        <v>1.021744721112579</v>
+      </c>
+      <c r="Q23">
+        <v>1.02174472111258</v>
+      </c>
+      <c r="R23">
+        <v>1.024883828345074</v>
+      </c>
+      <c r="S23">
+        <v>1.024883828345074</v>
+      </c>
+      <c r="T23">
+        <v>0.9917593408664866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.050095508034032</v>
+      </c>
+      <c r="D24">
+        <v>1.000643325205356</v>
+      </c>
+      <c r="E24">
+        <v>1.050095508034032</v>
+      </c>
+      <c r="F24">
+        <v>0.9645566276542581</v>
+      </c>
+      <c r="G24">
+        <v>1.018276206250649</v>
+      </c>
+      <c r="H24">
+        <v>1.009428476563701</v>
+      </c>
+      <c r="I24">
+        <v>0.9645566276542581</v>
+      </c>
+      <c r="J24">
+        <v>0.9901224210328134</v>
+      </c>
+      <c r="K24">
+        <v>0.9645566276542581</v>
+      </c>
+      <c r="L24">
+        <v>1.000643325205356</v>
+      </c>
+      <c r="M24">
+        <v>1.025369416619694</v>
+      </c>
+      <c r="N24">
+        <v>1.025369416619694</v>
+      </c>
+      <c r="O24">
+        <v>1.023005013163346</v>
+      </c>
+      <c r="P24">
+        <v>1.005098486964549</v>
+      </c>
+      <c r="Q24">
+        <v>1.005098486964549</v>
+      </c>
+      <c r="R24">
+        <v>0.9949630221369763</v>
+      </c>
+      <c r="S24">
+        <v>0.9949630221369763</v>
+      </c>
+      <c r="T24">
+        <v>1.005520427456802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.076899843125144</v>
+      </c>
+      <c r="D25">
+        <v>0.9488217601893472</v>
+      </c>
+      <c r="E25">
+        <v>1.076899843125144</v>
+      </c>
+      <c r="F25">
+        <v>1.03597892618537</v>
+      </c>
+      <c r="G25">
+        <v>1.065935901620291</v>
+      </c>
+      <c r="H25">
+        <v>0.8412930986968493</v>
+      </c>
+      <c r="I25">
+        <v>1.03597892618537</v>
+      </c>
+      <c r="J25">
+        <v>0.974232019077777</v>
+      </c>
+      <c r="K25">
+        <v>1.03597892618537</v>
+      </c>
+      <c r="L25">
+        <v>0.9488217601893472</v>
+      </c>
+      <c r="M25">
+        <v>1.012860801657245</v>
+      </c>
+      <c r="N25">
+        <v>1.012860801657245</v>
+      </c>
+      <c r="O25">
+        <v>1.030552501644927</v>
+      </c>
+      <c r="P25">
+        <v>1.02056684316662</v>
+      </c>
+      <c r="Q25">
+        <v>1.02056684316662</v>
+      </c>
+      <c r="R25">
+        <v>1.024419863921308</v>
+      </c>
+      <c r="S25">
+        <v>1.024419863921308</v>
+      </c>
+      <c r="T25">
+        <v>0.9905269248157964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.055012052863915</v>
+      </c>
+      <c r="D26">
+        <v>0.9996622106005547</v>
+      </c>
+      <c r="E26">
+        <v>1.055012052863915</v>
+      </c>
+      <c r="F26">
+        <v>0.9652922097676043</v>
+      </c>
+      <c r="G26">
+        <v>1.017859587093438</v>
+      </c>
+      <c r="H26">
+        <v>1.011923294486023</v>
+      </c>
+      <c r="I26">
+        <v>0.9652922097676043</v>
+      </c>
+      <c r="J26">
+        <v>0.9896417998685823</v>
+      </c>
+      <c r="K26">
+        <v>0.9652922097676043</v>
+      </c>
+      <c r="L26">
+        <v>0.9996622106005547</v>
+      </c>
+      <c r="M26">
+        <v>1.027337131732235</v>
+      </c>
+      <c r="N26">
+        <v>1.027337131732235</v>
+      </c>
+      <c r="O26">
+        <v>1.024177950185969</v>
+      </c>
+      <c r="P26">
+        <v>1.006655491077358</v>
+      </c>
+      <c r="Q26">
+        <v>1.006655491077358</v>
+      </c>
+      <c r="R26">
+        <v>0.9963146707499196</v>
+      </c>
+      <c r="S26">
+        <v>0.9963146707499196</v>
+      </c>
+      <c r="T26">
+        <v>1.006565192446686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.935426032538171</v>
+      </c>
+      <c r="D27">
+        <v>1.013298664249863</v>
+      </c>
+      <c r="E27">
+        <v>0.935426032538171</v>
+      </c>
+      <c r="F27">
+        <v>1.018200347124827</v>
+      </c>
+      <c r="G27">
+        <v>0.9695990295966833</v>
+      </c>
+      <c r="H27">
+        <v>1.029719647785825</v>
+      </c>
+      <c r="I27">
+        <v>1.018200347124827</v>
+      </c>
+      <c r="J27">
+        <v>1.014727730634603</v>
+      </c>
+      <c r="K27">
+        <v>1.018200347124827</v>
+      </c>
+      <c r="L27">
+        <v>1.013298664249863</v>
+      </c>
+      <c r="M27">
+        <v>0.9743623483940171</v>
+      </c>
+      <c r="N27">
+        <v>0.9743623483940171</v>
+      </c>
+      <c r="O27">
+        <v>0.9727745754615725</v>
+      </c>
+      <c r="P27">
+        <v>0.9889750146376203</v>
+      </c>
+      <c r="Q27">
+        <v>0.9889750146376203</v>
+      </c>
+      <c r="R27">
+        <v>0.9962813477594219</v>
+      </c>
+      <c r="S27">
+        <v>0.9962813477594219</v>
+      </c>
+      <c r="T27">
+        <v>0.996828575321662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.003106022646728</v>
+      </c>
+      <c r="D28">
+        <v>0.9979307210536599</v>
+      </c>
+      <c r="E28">
+        <v>1.003106022646728</v>
+      </c>
+      <c r="F28">
+        <v>1.000379941198059</v>
+      </c>
+      <c r="G28">
+        <v>1.005220542540974</v>
+      </c>
+      <c r="H28">
+        <v>0.98607053483532</v>
+      </c>
+      <c r="I28">
+        <v>1.000379941198059</v>
+      </c>
+      <c r="J28">
+        <v>0.9986447830971864</v>
+      </c>
+      <c r="K28">
+        <v>1.000379941198059</v>
+      </c>
+      <c r="L28">
+        <v>0.9979307210536599</v>
+      </c>
+      <c r="M28">
+        <v>1.000518371850194</v>
+      </c>
+      <c r="N28">
+        <v>1.000518371850194</v>
+      </c>
+      <c r="O28">
+        <v>1.002085762080454</v>
+      </c>
+      <c r="P28">
+        <v>1.000472228299483</v>
+      </c>
+      <c r="Q28">
+        <v>1.000472228299482</v>
+      </c>
+      <c r="R28">
+        <v>1.000449156524127</v>
+      </c>
+      <c r="S28">
+        <v>1.000449156524127</v>
+      </c>
+      <c r="T28">
+        <v>0.9985587575619879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.192692330199292</v>
+      </c>
+      <c r="D29">
+        <v>0.9483480554372288</v>
+      </c>
+      <c r="E29">
+        <v>1.192692330199292</v>
+      </c>
+      <c r="F29">
+        <v>0.9660510613058335</v>
+      </c>
+      <c r="G29">
+        <v>1.097947064891931</v>
+      </c>
+      <c r="H29">
+        <v>0.8790483338908635</v>
+      </c>
+      <c r="I29">
+        <v>0.9660510613058335</v>
+      </c>
+      <c r="J29">
+        <v>0.9535092922679111</v>
+      </c>
+      <c r="K29">
+        <v>0.9660510613058335</v>
+      </c>
+      <c r="L29">
+        <v>0.9483480554372288</v>
+      </c>
+      <c r="M29">
+        <v>1.070520192818261</v>
+      </c>
+      <c r="N29">
+        <v>1.070520192818261</v>
+      </c>
+      <c r="O29">
+        <v>1.079662483509484</v>
+      </c>
+      <c r="P29">
+        <v>1.035697148980785</v>
+      </c>
+      <c r="Q29">
+        <v>1.035697148980785</v>
+      </c>
+      <c r="R29">
+        <v>1.018285627062047</v>
+      </c>
+      <c r="S29">
+        <v>1.018285627062047</v>
+      </c>
+      <c r="T29">
+        <v>1.006266022998843</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9541589247493106</v>
+        <v>0.8847710733220511</v>
       </c>
       <c r="D4">
-        <v>1.016102164112734</v>
+        <v>1.042013407182104</v>
       </c>
       <c r="E4">
-        <v>0.9541589247493106</v>
+        <v>0.8847710733220511</v>
       </c>
       <c r="F4">
-        <v>1.002480711845533</v>
+        <v>1.005468196608122</v>
       </c>
       <c r="G4">
-        <v>0.9727605551103163</v>
+        <v>0.9271446790312211</v>
       </c>
       <c r="H4">
-        <v>1.043204849933397</v>
+        <v>1.121648951941947</v>
       </c>
       <c r="I4">
-        <v>1.002480711845533</v>
+        <v>1.005468196608122</v>
       </c>
       <c r="J4">
-        <v>1.012130891431216</v>
+        <v>1.031358828416896</v>
       </c>
       <c r="K4">
-        <v>1.002480711845533</v>
+        <v>1.005468196608122</v>
       </c>
       <c r="L4">
-        <v>1.016102164112734</v>
+        <v>1.042013407182104</v>
       </c>
       <c r="M4">
-        <v>0.9851305444310221</v>
+        <v>0.9633922402520775</v>
       </c>
       <c r="N4">
-        <v>0.9851305444310221</v>
+        <v>0.9633922402520775</v>
       </c>
       <c r="O4">
-        <v>0.9810072146574536</v>
+        <v>0.9513097198451254</v>
       </c>
       <c r="P4">
-        <v>0.9909139335691922</v>
+        <v>0.9774175590374256</v>
       </c>
       <c r="Q4">
-        <v>0.9909139335691924</v>
+        <v>0.9774175590374256</v>
       </c>
       <c r="R4">
-        <v>0.9938056281382774</v>
+        <v>0.9844302184300995</v>
       </c>
       <c r="S4">
-        <v>0.9938056281382774</v>
+        <v>0.9844302184300995</v>
       </c>
       <c r="T4">
-        <v>1.000139682863751</v>
+        <v>1.00206752275039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8606846911887593</v>
+        <v>0.8734368075673115</v>
       </c>
       <c r="D5">
-        <v>1.048857218544666</v>
+        <v>1.012884684982304</v>
       </c>
       <c r="E5">
-        <v>0.8606846911887593</v>
+        <v>0.8734368075673115</v>
       </c>
       <c r="F5">
-        <v>1.010209171577811</v>
+        <v>1.060641526603249</v>
       </c>
       <c r="G5">
-        <v>0.9130019634221932</v>
+        <v>0.9485953891287184</v>
       </c>
       <c r="H5">
-        <v>1.141253680727659</v>
+        <v>1.013637439264905</v>
       </c>
       <c r="I5">
-        <v>1.010209171577811</v>
+        <v>1.060641526603249</v>
       </c>
       <c r="J5">
-        <v>1.037589569416426</v>
+        <v>1.026807964818492</v>
       </c>
       <c r="K5">
-        <v>1.010209171577811</v>
+        <v>1.060641526603249</v>
       </c>
       <c r="L5">
-        <v>1.048857218544666</v>
+        <v>1.012884684982304</v>
       </c>
       <c r="M5">
-        <v>0.9547709548667125</v>
+        <v>0.9431607462748075</v>
       </c>
       <c r="N5">
-        <v>0.9547709548667125</v>
+        <v>0.9431607462748075</v>
       </c>
       <c r="O5">
-        <v>0.9408479577185394</v>
+        <v>0.9449722938927779</v>
       </c>
       <c r="P5">
-        <v>0.9732503604370786</v>
+        <v>0.9823210063842879</v>
       </c>
       <c r="Q5">
-        <v>0.9732503604370786</v>
+        <v>0.9823210063842879</v>
       </c>
       <c r="R5">
-        <v>0.9824900632222616</v>
+        <v>1.001901136439028</v>
       </c>
       <c r="S5">
-        <v>0.9824900632222616</v>
+        <v>1.001901136439028</v>
       </c>
       <c r="T5">
-        <v>1.001932715812919</v>
+        <v>0.9893339687274967</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5680991981708512</v>
+        <v>0.9541589247493106</v>
       </c>
       <c r="D6">
-        <v>1.178458511026052</v>
+        <v>1.016102164112734</v>
       </c>
       <c r="E6">
-        <v>0.5680991981708512</v>
+        <v>0.9541589247493106</v>
       </c>
       <c r="F6">
-        <v>0.9839897868827167</v>
+        <v>1.002480711845533</v>
       </c>
       <c r="G6">
-        <v>0.710007184202057</v>
+        <v>0.9727605551103163</v>
       </c>
       <c r="H6">
-        <v>1.533295831334846</v>
+        <v>1.043204849933397</v>
       </c>
       <c r="I6">
-        <v>0.9839897868827167</v>
+        <v>1.002480711845533</v>
       </c>
       <c r="J6">
-        <v>1.121762119375244</v>
+        <v>1.012130891431216</v>
       </c>
       <c r="K6">
-        <v>0.9839897868827167</v>
+        <v>1.002480711845533</v>
       </c>
       <c r="L6">
-        <v>1.178458511026052</v>
+        <v>1.016102164112734</v>
       </c>
       <c r="M6">
-        <v>0.8732788545984514</v>
+        <v>0.9851305444310221</v>
       </c>
       <c r="N6">
-        <v>0.8732788545984514</v>
+        <v>0.9851305444310221</v>
       </c>
       <c r="O6">
-        <v>0.81885496446632</v>
+        <v>0.9810072146574536</v>
       </c>
       <c r="P6">
-        <v>0.9101824986932066</v>
+        <v>0.9909139335691922</v>
       </c>
       <c r="Q6">
-        <v>0.9101824986932066</v>
+        <v>0.9909139335691924</v>
       </c>
       <c r="R6">
-        <v>0.9286343207405841</v>
+        <v>0.9938056281382774</v>
       </c>
       <c r="S6">
-        <v>0.9286343207405841</v>
+        <v>0.9938056281382774</v>
       </c>
       <c r="T6">
-        <v>1.015935438498628</v>
+        <v>1.000139682863751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9811528386450071</v>
+        <v>0.8606846911887593</v>
       </c>
       <c r="D7">
-        <v>1.00288149617741</v>
+        <v>1.048857218544666</v>
       </c>
       <c r="E7">
-        <v>0.9811528386450071</v>
+        <v>0.8606846911887593</v>
       </c>
       <c r="F7">
-        <v>1.008169895687521</v>
+        <v>1.010209171577811</v>
       </c>
       <c r="G7">
-        <v>0.9906499602537416</v>
+        <v>0.9130019634221932</v>
       </c>
       <c r="H7">
-        <v>1.006914084918345</v>
+        <v>1.141253680727659</v>
       </c>
       <c r="I7">
-        <v>1.008169895687521</v>
+        <v>1.010209171577811</v>
       </c>
       <c r="J7">
-        <v>1.004423302620734</v>
+        <v>1.037589569416426</v>
       </c>
       <c r="K7">
-        <v>1.008169895687521</v>
+        <v>1.010209171577811</v>
       </c>
       <c r="L7">
-        <v>1.00288149617741</v>
+        <v>1.048857218544666</v>
       </c>
       <c r="M7">
-        <v>0.9920171674112088</v>
+        <v>0.9547709548667125</v>
       </c>
       <c r="N7">
-        <v>0.9920171674112088</v>
+        <v>0.9547709548667125</v>
       </c>
       <c r="O7">
-        <v>0.9915614316920531</v>
+        <v>0.9408479577185394</v>
       </c>
       <c r="P7">
-        <v>0.9974014101699797</v>
+        <v>0.9732503604370786</v>
       </c>
       <c r="Q7">
-        <v>0.9974014101699797</v>
+        <v>0.9732503604370786</v>
       </c>
       <c r="R7">
-        <v>1.000093531549365</v>
+        <v>0.9824900632222616</v>
       </c>
       <c r="S7">
-        <v>1.000093531549365</v>
+        <v>0.9824900632222616</v>
       </c>
       <c r="T7">
-        <v>0.9990319297171268</v>
+        <v>1.001932715812919</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9982611824302384</v>
+        <v>0.5680991981708512</v>
       </c>
       <c r="D8">
-        <v>0.9999602683597255</v>
+        <v>1.178458511026052</v>
       </c>
       <c r="E8">
-        <v>0.9982611824302384</v>
+        <v>0.5680991981708512</v>
       </c>
       <c r="F8">
-        <v>1.001373793755154</v>
+        <v>0.9839897868827167</v>
       </c>
       <c r="G8">
-        <v>0.9992202747913022</v>
+        <v>0.710007184202057</v>
       </c>
       <c r="H8">
-        <v>0.9999296263109907</v>
+        <v>1.533295831334846</v>
       </c>
       <c r="I8">
-        <v>1.001373793755154</v>
+        <v>0.9839897868827167</v>
       </c>
       <c r="J8">
-        <v>1.000372374077876</v>
+        <v>1.121762119375244</v>
       </c>
       <c r="K8">
-        <v>1.001373793755154</v>
+        <v>0.9839897868827167</v>
       </c>
       <c r="L8">
-        <v>0.9999602683597255</v>
+        <v>1.178458511026052</v>
       </c>
       <c r="M8">
-        <v>0.999110725394982</v>
+        <v>0.8732788545984514</v>
       </c>
       <c r="N8">
-        <v>0.999110725394982</v>
+        <v>0.8732788545984514</v>
       </c>
       <c r="O8">
-        <v>0.9991472418604221</v>
+        <v>0.81885496446632</v>
       </c>
       <c r="P8">
-        <v>0.9998650815150393</v>
+        <v>0.9101824986932066</v>
       </c>
       <c r="Q8">
-        <v>0.9998650815150393</v>
+        <v>0.9101824986932066</v>
       </c>
       <c r="R8">
-        <v>1.000242259575068</v>
+        <v>0.9286343207405841</v>
       </c>
       <c r="S8">
-        <v>1.000242259575068</v>
+        <v>0.9286343207405841</v>
       </c>
       <c r="T8">
-        <v>0.9998529199542144</v>
+        <v>1.015935438498628</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9667475620779831</v>
+        <v>0.9811528386450071</v>
       </c>
       <c r="D9">
-        <v>1.005051875430808</v>
+        <v>1.00288149617741</v>
       </c>
       <c r="E9">
-        <v>0.9667475620779831</v>
+        <v>0.9811528386450071</v>
       </c>
       <c r="F9">
-        <v>1.014527692162892</v>
+        <v>1.008169895687521</v>
       </c>
       <c r="G9">
-        <v>0.9834561913201307</v>
+        <v>0.9906499602537416</v>
       </c>
       <c r="H9">
-        <v>1.012209786638583</v>
+        <v>1.006914084918345</v>
       </c>
       <c r="I9">
-        <v>1.014527692162892</v>
+        <v>1.008169895687521</v>
       </c>
       <c r="J9">
-        <v>1.007814504241806</v>
+        <v>1.004423302620734</v>
       </c>
       <c r="K9">
-        <v>1.014527692162892</v>
+        <v>1.008169895687521</v>
       </c>
       <c r="L9">
-        <v>1.005051875430808</v>
+        <v>1.00288149617741</v>
       </c>
       <c r="M9">
-        <v>0.9858997187543955</v>
+        <v>0.9920171674112088</v>
       </c>
       <c r="N9">
-        <v>0.9858997187543955</v>
+        <v>0.9920171674112088</v>
       </c>
       <c r="O9">
-        <v>0.9850852096096405</v>
+        <v>0.9915614316920531</v>
       </c>
       <c r="P9">
-        <v>0.9954423765572278</v>
+        <v>0.9974014101699797</v>
       </c>
       <c r="Q9">
-        <v>0.9954423765572278</v>
+        <v>0.9974014101699797</v>
       </c>
       <c r="R9">
-        <v>1.000213705458644</v>
+        <v>1.000093531549365</v>
       </c>
       <c r="S9">
-        <v>1.000213705458644</v>
+        <v>1.000093531549365</v>
       </c>
       <c r="T9">
-        <v>0.9983012686453673</v>
+        <v>0.9990319297171268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5637206380790852</v>
+        <v>0.9982611824302384</v>
       </c>
       <c r="D10">
-        <v>1.181724987721197</v>
+        <v>0.9999602683597255</v>
       </c>
       <c r="E10">
-        <v>0.5637206380790852</v>
+        <v>0.9982611824302384</v>
       </c>
       <c r="F10">
-        <v>0.9814819719042625</v>
+        <v>1.001373793755154</v>
       </c>
       <c r="G10">
-        <v>0.705731316501619</v>
+        <v>0.9992202747913022</v>
       </c>
       <c r="H10">
-        <v>1.544156786054489</v>
+        <v>0.9999296263109907</v>
       </c>
       <c r="I10">
-        <v>0.9814819719042625</v>
+        <v>1.001373793755154</v>
       </c>
       <c r="J10">
-        <v>1.123345130276297</v>
+        <v>1.000372374077876</v>
       </c>
       <c r="K10">
-        <v>0.9814819719042625</v>
+        <v>1.001373793755154</v>
       </c>
       <c r="L10">
-        <v>1.181724987721197</v>
+        <v>0.9999602683597255</v>
       </c>
       <c r="M10">
-        <v>0.872722812900141</v>
+        <v>0.999110725394982</v>
       </c>
       <c r="N10">
-        <v>0.872722812900141</v>
+        <v>0.999110725394982</v>
       </c>
       <c r="O10">
-        <v>0.8170589807673002</v>
+        <v>0.9991472418604221</v>
       </c>
       <c r="P10">
-        <v>0.9089758659015148</v>
+        <v>0.9998650815150393</v>
       </c>
       <c r="Q10">
-        <v>0.9089758659015148</v>
+        <v>0.9998650815150393</v>
       </c>
       <c r="R10">
-        <v>0.9271023924022017</v>
+        <v>1.000242259575068</v>
       </c>
       <c r="S10">
-        <v>0.9271023924022017</v>
+        <v>1.000242259575068</v>
       </c>
       <c r="T10">
-        <v>1.016693471756158</v>
+        <v>0.9998529199542144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9459676883803715</v>
+        <v>0.9667475620779831</v>
       </c>
       <c r="D11">
-        <v>1.010755360810538</v>
+        <v>1.005051875430808</v>
       </c>
       <c r="E11">
-        <v>0.9459676883803715</v>
+        <v>0.9667475620779831</v>
       </c>
       <c r="F11">
-        <v>1.017278976113492</v>
+        <v>1.014527692162892</v>
       </c>
       <c r="G11">
-        <v>0.9738833110897954</v>
+        <v>0.9834561913201307</v>
       </c>
       <c r="H11">
-        <v>1.023208403623087</v>
+        <v>1.012209786638583</v>
       </c>
       <c r="I11">
-        <v>1.017278976113492</v>
+        <v>1.014527692162892</v>
       </c>
       <c r="J11">
-        <v>1.012657284436311</v>
+        <v>1.007814504241806</v>
       </c>
       <c r="K11">
-        <v>1.017278976113492</v>
+        <v>1.014527692162892</v>
       </c>
       <c r="L11">
-        <v>1.010755360810538</v>
+        <v>1.005051875430808</v>
       </c>
       <c r="M11">
-        <v>0.9783615245954547</v>
+        <v>0.9858997187543955</v>
       </c>
       <c r="N11">
-        <v>0.9783615245954547</v>
+        <v>0.9858997187543955</v>
       </c>
       <c r="O11">
-        <v>0.9768687867602349</v>
+        <v>0.9850852096096405</v>
       </c>
       <c r="P11">
-        <v>0.9913340084348006</v>
+        <v>0.9954423765572278</v>
       </c>
       <c r="Q11">
-        <v>0.9913340084348006</v>
+        <v>0.9954423765572278</v>
       </c>
       <c r="R11">
-        <v>0.9978202503544735</v>
+        <v>1.000213705458644</v>
       </c>
       <c r="S11">
-        <v>0.9978202503544735</v>
+        <v>1.000213705458644</v>
       </c>
       <c r="T11">
-        <v>0.9972918374089326</v>
+        <v>0.9983012686453673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8694864689263171</v>
+        <v>0.5637206380790852</v>
       </c>
       <c r="D12">
-        <v>1.054996765842104</v>
+        <v>1.181724987721197</v>
       </c>
       <c r="E12">
-        <v>0.8694864689263171</v>
+        <v>0.5637206380790852</v>
       </c>
       <c r="F12">
-        <v>0.9934770748000012</v>
+        <v>0.9814819719042625</v>
       </c>
       <c r="G12">
-        <v>0.9116487960947384</v>
+        <v>0.705731316501619</v>
       </c>
       <c r="H12">
-        <v>1.163923678863151</v>
+        <v>1.544156786054489</v>
       </c>
       <c r="I12">
-        <v>0.9934770748000012</v>
+        <v>0.9814819719042625</v>
       </c>
       <c r="J12">
-        <v>1.037061001389473</v>
+        <v>1.123345130276297</v>
       </c>
       <c r="K12">
-        <v>0.9934770748000012</v>
+        <v>0.9814819719042625</v>
       </c>
       <c r="L12">
-        <v>1.054996765842104</v>
+        <v>1.181724987721197</v>
       </c>
       <c r="M12">
-        <v>0.9622416173842105</v>
+        <v>0.872722812900141</v>
       </c>
       <c r="N12">
-        <v>0.9622416173842105</v>
+        <v>0.872722812900141</v>
       </c>
       <c r="O12">
-        <v>0.9453773436210531</v>
+        <v>0.8170589807673002</v>
       </c>
       <c r="P12">
-        <v>0.9726534365228074</v>
+        <v>0.9089758659015148</v>
       </c>
       <c r="Q12">
-        <v>0.9726534365228074</v>
+        <v>0.9089758659015148</v>
       </c>
       <c r="R12">
-        <v>0.9778593460921059</v>
+        <v>0.9271023924022017</v>
       </c>
       <c r="S12">
-        <v>0.9778593460921059</v>
+        <v>0.9271023924022017</v>
       </c>
       <c r="T12">
-        <v>1.005098964319297</v>
+        <v>1.016693471756158</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.106215579468222</v>
+        <v>0.9459676883803715</v>
       </c>
       <c r="D13">
-        <v>0.971237658700384</v>
+        <v>1.010755360810538</v>
       </c>
       <c r="E13">
-        <v>1.106215579468222</v>
+        <v>0.9459676883803715</v>
       </c>
       <c r="F13">
-        <v>0.978449065136318</v>
+        <v>1.017278976113492</v>
       </c>
       <c r="G13">
-        <v>1.058578803488573</v>
+        <v>0.9738833110897954</v>
       </c>
       <c r="H13">
-        <v>0.9242839881582779</v>
+        <v>1.023208403623087</v>
       </c>
       <c r="I13">
-        <v>0.978449065136318</v>
+        <v>1.017278976113492</v>
       </c>
       <c r="J13">
-        <v>0.9733401104103313</v>
+        <v>1.012657284436311</v>
       </c>
       <c r="K13">
-        <v>0.978449065136318</v>
+        <v>1.017278976113492</v>
       </c>
       <c r="L13">
-        <v>0.971237658700384</v>
+        <v>1.010755360810538</v>
       </c>
       <c r="M13">
-        <v>1.038726619084303</v>
+        <v>0.9783615245954547</v>
       </c>
       <c r="N13">
-        <v>1.038726619084303</v>
+        <v>0.9783615245954547</v>
       </c>
       <c r="O13">
-        <v>1.045344013885727</v>
+        <v>0.9768687867602349</v>
       </c>
       <c r="P13">
-        <v>1.018634101101642</v>
+        <v>0.9913340084348006</v>
       </c>
       <c r="Q13">
-        <v>1.018634101101642</v>
+        <v>0.9913340084348006</v>
       </c>
       <c r="R13">
-        <v>1.008587842110311</v>
+        <v>0.9978202503544735</v>
       </c>
       <c r="S13">
-        <v>1.008587842110311</v>
+        <v>0.9978202503544735</v>
       </c>
       <c r="T13">
-        <v>1.002017534227018</v>
+        <v>0.9972918374089326</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.2502035199999997</v>
+        <v>0.8694864689263171</v>
       </c>
       <c r="D14">
-        <v>1.315735799999999</v>
+        <v>1.054996765842104</v>
       </c>
       <c r="E14">
-        <v>0.2502035199999997</v>
+        <v>0.8694864689263171</v>
       </c>
       <c r="F14">
-        <v>0.9618347199999993</v>
+        <v>0.9934770748000012</v>
       </c>
       <c r="G14">
-        <v>0.4918962299999994</v>
+        <v>0.9116487960947384</v>
       </c>
       <c r="H14">
-        <v>1.947381500000003</v>
+        <v>1.163923678863151</v>
       </c>
       <c r="I14">
-        <v>0.9618347199999993</v>
+        <v>0.9934770748000012</v>
       </c>
       <c r="J14">
-        <v>1.212557700000001</v>
+        <v>1.037061001389473</v>
       </c>
       <c r="K14">
-        <v>0.9618347199999993</v>
+        <v>0.9934770748000012</v>
       </c>
       <c r="L14">
-        <v>1.315735799999999</v>
+        <v>1.054996765842104</v>
       </c>
       <c r="M14">
-        <v>0.7829696599999996</v>
+        <v>0.9622416173842105</v>
       </c>
       <c r="N14">
-        <v>0.7829696599999996</v>
+        <v>0.9622416173842105</v>
       </c>
       <c r="O14">
-        <v>0.6859451833333328</v>
+        <v>0.9453773436210531</v>
       </c>
       <c r="P14">
-        <v>0.8425913466666661</v>
+        <v>0.9726534365228074</v>
       </c>
       <c r="Q14">
-        <v>0.8425913466666661</v>
+        <v>0.9726534365228074</v>
       </c>
       <c r="R14">
-        <v>0.8724021899999994</v>
+        <v>0.9778593460921059</v>
       </c>
       <c r="S14">
-        <v>0.8724021899999994</v>
+        <v>0.9778593460921059</v>
       </c>
       <c r="T14">
-        <v>1.029934911666667</v>
+        <v>1.005098964319297</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.5229061699999999</v>
+        <v>1.106215579468222</v>
       </c>
       <c r="D15">
-        <v>0.99179431</v>
+        <v>0.971237658700384</v>
       </c>
       <c r="E15">
-        <v>0.5229061699999999</v>
+        <v>1.106215579468222</v>
       </c>
       <c r="F15">
-        <v>1.3679559</v>
+        <v>0.978449065136318</v>
       </c>
       <c r="G15">
-        <v>0.7938064500000001</v>
+        <v>1.058578803488573</v>
       </c>
       <c r="H15">
-        <v>0.9618347200000001</v>
+        <v>0.9242839881582779</v>
       </c>
       <c r="I15">
-        <v>1.3679559</v>
+        <v>0.978449065136318</v>
       </c>
       <c r="J15">
-        <v>1.1014624</v>
+        <v>0.9733401104103313</v>
       </c>
       <c r="K15">
-        <v>1.3679559</v>
+        <v>0.978449065136318</v>
       </c>
       <c r="L15">
-        <v>0.99179431</v>
+        <v>0.971237658700384</v>
       </c>
       <c r="M15">
-        <v>0.75735024</v>
+        <v>1.038726619084303</v>
       </c>
       <c r="N15">
-        <v>0.75735024</v>
+        <v>1.038726619084303</v>
       </c>
       <c r="O15">
-        <v>0.76950231</v>
+        <v>1.045344013885727</v>
       </c>
       <c r="P15">
-        <v>0.9608854599999997</v>
+        <v>1.018634101101642</v>
       </c>
       <c r="Q15">
-        <v>0.9608854599999997</v>
+        <v>1.018634101101642</v>
       </c>
       <c r="R15">
-        <v>1.06265307</v>
+        <v>1.008587842110311</v>
       </c>
       <c r="S15">
-        <v>1.06265307</v>
+        <v>1.008587842110311</v>
       </c>
       <c r="T15">
-        <v>0.9566266583333332</v>
+        <v>1.002017534227018</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.67342322</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="D16">
-        <v>1.1253076</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="E16">
-        <v>0.67342322</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="F16">
-        <v>0.9917924599999999</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="G16">
-        <v>0.81021987</v>
+        <v>0.4918962299999994</v>
       </c>
       <c r="H16">
-        <v>1.3157154</v>
+        <v>1.947381500000003</v>
       </c>
       <c r="I16">
-        <v>0.9917924599999999</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="J16">
-        <v>1.0863819</v>
+        <v>1.212557700000001</v>
       </c>
       <c r="K16">
-        <v>0.9917924599999999</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="L16">
-        <v>1.1253076</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="M16">
-        <v>0.8993654099999999</v>
+        <v>0.7829696599999996</v>
       </c>
       <c r="N16">
-        <v>0.8993654099999999</v>
+        <v>0.7829696599999996</v>
       </c>
       <c r="O16">
-        <v>0.86965023</v>
+        <v>0.6859451833333328</v>
       </c>
       <c r="P16">
-        <v>0.9301744266666665</v>
+        <v>0.8425913466666661</v>
       </c>
       <c r="Q16">
-        <v>0.9301744266666665</v>
+        <v>0.8425913466666661</v>
       </c>
       <c r="R16">
-        <v>0.9455789349999999</v>
+        <v>0.8724021899999994</v>
       </c>
       <c r="S16">
-        <v>0.9455789349999999</v>
+        <v>0.8724021899999994</v>
       </c>
       <c r="T16">
-        <v>1.000473408333333</v>
+        <v>1.029934911666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.4071801</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="D17">
-        <v>0.9703909799999999</v>
+        <v>0.99179431</v>
       </c>
       <c r="E17">
-        <v>1.4071801</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="F17">
-        <v>0.78719938</v>
+        <v>1.3679559</v>
       </c>
       <c r="G17">
-        <v>1.15182</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="H17">
-        <v>1.0076934</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="I17">
-        <v>0.78719938</v>
+        <v>1.3679559</v>
       </c>
       <c r="J17">
-        <v>0.9169823499999999</v>
+        <v>1.1014624</v>
       </c>
       <c r="K17">
-        <v>0.78719938</v>
+        <v>1.3679559</v>
       </c>
       <c r="L17">
-        <v>0.9703909799999999</v>
+        <v>0.99179431</v>
       </c>
       <c r="M17">
-        <v>1.18878554</v>
+        <v>0.75735024</v>
       </c>
       <c r="N17">
-        <v>1.18878554</v>
+        <v>0.75735024</v>
       </c>
       <c r="O17">
-        <v>1.176463693333333</v>
+        <v>0.76950231</v>
       </c>
       <c r="P17">
-        <v>1.054923486666667</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q17">
-        <v>1.054923486666667</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R17">
-        <v>0.98799246</v>
+        <v>1.06265307</v>
       </c>
       <c r="S17">
-        <v>0.98799246</v>
+        <v>1.06265307</v>
       </c>
       <c r="T17">
-        <v>1.040211035</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.597124529178082</v>
+        <v>0.67342322</v>
       </c>
       <c r="D18">
-        <v>1.057639706438356</v>
+        <v>1.1253076</v>
       </c>
       <c r="E18">
-        <v>0.597124529178082</v>
+        <v>0.67342322</v>
       </c>
       <c r="F18">
-        <v>1.182451566301369</v>
+        <v>0.9917924599999999</v>
       </c>
       <c r="G18">
-        <v>0.8018946346575341</v>
+        <v>0.81021987</v>
       </c>
       <c r="H18">
-        <v>1.136361284931507</v>
+        <v>1.3157154</v>
       </c>
       <c r="I18">
-        <v>1.182451566301369</v>
+        <v>0.9917924599999999</v>
       </c>
       <c r="J18">
-        <v>1.094028008219178</v>
+        <v>1.0863819</v>
       </c>
       <c r="K18">
-        <v>1.182451566301369</v>
+        <v>0.9917924599999999</v>
       </c>
       <c r="L18">
-        <v>1.057639706438356</v>
+        <v>1.1253076</v>
       </c>
       <c r="M18">
-        <v>0.8273821178082191</v>
+        <v>0.8993654099999999</v>
       </c>
       <c r="N18">
-        <v>0.8273821178082191</v>
+        <v>0.8993654099999999</v>
       </c>
       <c r="O18">
-        <v>0.8188862900913242</v>
+        <v>0.86965023</v>
       </c>
       <c r="P18">
-        <v>0.9457386006392693</v>
+        <v>0.9301744266666665</v>
       </c>
       <c r="Q18">
-        <v>0.9457386006392693</v>
+        <v>0.9301744266666665</v>
       </c>
       <c r="R18">
-        <v>1.004916842054794</v>
+        <v>0.9455789349999999</v>
       </c>
       <c r="S18">
-        <v>1.004916842054794</v>
+        <v>0.9455789349999999</v>
       </c>
       <c r="T18">
-        <v>0.9782499549543378</v>
+        <v>1.000473408333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9028528805263157</v>
+        <v>1.4071801</v>
       </c>
       <c r="D19">
-        <v>1.063570825263158</v>
+        <v>0.9703909799999999</v>
       </c>
       <c r="E19">
-        <v>0.9028528805263157</v>
+        <v>1.4071801</v>
       </c>
       <c r="F19">
-        <v>0.9584450536842105</v>
+        <v>0.78719938</v>
       </c>
       <c r="G19">
-        <v>0.9144075510526315</v>
+        <v>1.15182</v>
       </c>
       <c r="H19">
-        <v>1.203647388421053</v>
+        <v>1.0076934</v>
       </c>
       <c r="I19">
-        <v>0.9584450536842105</v>
+        <v>0.78719938</v>
       </c>
       <c r="J19">
-        <v>1.032921917894737</v>
+        <v>0.9169823499999999</v>
       </c>
       <c r="K19">
-        <v>0.9584450536842105</v>
+        <v>0.78719938</v>
       </c>
       <c r="L19">
-        <v>1.063570825263158</v>
+        <v>0.9703909799999999</v>
       </c>
       <c r="M19">
-        <v>0.9832118528947369</v>
+        <v>1.18878554</v>
       </c>
       <c r="N19">
-        <v>0.9832118528947369</v>
+        <v>1.18878554</v>
       </c>
       <c r="O19">
-        <v>0.9602770856140351</v>
+        <v>1.176463693333333</v>
       </c>
       <c r="P19">
-        <v>0.9749562531578948</v>
+        <v>1.054923486666667</v>
       </c>
       <c r="Q19">
-        <v>0.9749562531578947</v>
+        <v>1.054923486666667</v>
       </c>
       <c r="R19">
-        <v>0.9708284532894736</v>
+        <v>0.98799246</v>
       </c>
       <c r="S19">
-        <v>0.9708284532894736</v>
+        <v>0.98799246</v>
       </c>
       <c r="T19">
-        <v>1.012640936140351</v>
+        <v>1.040211035</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8205333647368419</v>
+        <v>0.597124529178082</v>
       </c>
       <c r="D20">
-        <v>1.034160047368421</v>
+        <v>1.057639706438356</v>
       </c>
       <c r="E20">
-        <v>0.8205333647368419</v>
+        <v>0.597124529178082</v>
       </c>
       <c r="F20">
-        <v>1.060639613157895</v>
+        <v>1.182451566301369</v>
       </c>
       <c r="G20">
-        <v>0.9122380642105262</v>
+        <v>0.8018946346575341</v>
       </c>
       <c r="H20">
-        <v>1.079395177368422</v>
+        <v>1.136361284931507</v>
       </c>
       <c r="I20">
-        <v>1.060639613157895</v>
+        <v>1.182451566301369</v>
       </c>
       <c r="J20">
-        <v>1.041880041578948</v>
+        <v>1.094028008219178</v>
       </c>
       <c r="K20">
-        <v>1.060639613157895</v>
+        <v>1.182451566301369</v>
       </c>
       <c r="L20">
-        <v>1.034160047368421</v>
+        <v>1.057639706438356</v>
       </c>
       <c r="M20">
-        <v>0.9273467060526317</v>
+        <v>0.8273821178082191</v>
       </c>
       <c r="N20">
-        <v>0.9273467060526317</v>
+        <v>0.8273821178082191</v>
       </c>
       <c r="O20">
-        <v>0.9223104921052632</v>
+        <v>0.8188862900913242</v>
       </c>
       <c r="P20">
-        <v>0.9717776750877194</v>
+        <v>0.9457386006392693</v>
       </c>
       <c r="Q20">
-        <v>0.9717776750877194</v>
+        <v>0.9457386006392693</v>
       </c>
       <c r="R20">
-        <v>0.9939931596052632</v>
+        <v>1.004916842054794</v>
       </c>
       <c r="S20">
-        <v>0.9939931596052632</v>
+        <v>1.004916842054794</v>
       </c>
       <c r="T20">
-        <v>0.9914743847368422</v>
+        <v>0.9782499549543378</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.087595502107483</v>
+        <v>0.9028528805263157</v>
       </c>
       <c r="D21">
-        <v>0.9485544529570193</v>
+        <v>1.063570825263158</v>
       </c>
       <c r="E21">
-        <v>1.087595502107483</v>
+        <v>0.9028528805263157</v>
       </c>
       <c r="F21">
-        <v>1.032618269452672</v>
+        <v>0.9584450536842105</v>
       </c>
       <c r="G21">
-        <v>1.065495944084504</v>
+        <v>0.9144075510526315</v>
       </c>
       <c r="H21">
-        <v>0.8506261723366549</v>
+        <v>1.203647388421053</v>
       </c>
       <c r="I21">
-        <v>1.032618269452672</v>
+        <v>0.9584450536842105</v>
       </c>
       <c r="J21">
-        <v>0.9730628495404513</v>
+        <v>1.032921917894737</v>
       </c>
       <c r="K21">
-        <v>1.032618269452672</v>
+        <v>0.9584450536842105</v>
       </c>
       <c r="L21">
-        <v>0.9485544529570193</v>
+        <v>1.063570825263158</v>
       </c>
       <c r="M21">
-        <v>1.018074977532251</v>
+        <v>0.9832118528947369</v>
       </c>
       <c r="N21">
-        <v>1.018074977532251</v>
+        <v>0.9832118528947369</v>
       </c>
       <c r="O21">
-        <v>1.033881966383002</v>
+        <v>0.9602770856140351</v>
       </c>
       <c r="P21">
-        <v>1.022922741505725</v>
+        <v>0.9749562531578948</v>
       </c>
       <c r="Q21">
-        <v>1.022922741505725</v>
+        <v>0.9749562531578947</v>
       </c>
       <c r="R21">
-        <v>1.025346623492462</v>
+        <v>0.9708284532894736</v>
       </c>
       <c r="S21">
-        <v>1.025346623492462</v>
+        <v>0.9708284532894736</v>
       </c>
       <c r="T21">
-        <v>0.9929921984131306</v>
+        <v>1.012640936140351</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.045180379203713</v>
+        <v>0.8205333647368419</v>
       </c>
       <c r="D22">
-        <v>1.001623181772805</v>
+        <v>1.034160047368421</v>
       </c>
       <c r="E22">
-        <v>1.045180379203713</v>
+        <v>0.8205333647368419</v>
       </c>
       <c r="F22">
-        <v>0.9638230075216269</v>
+        <v>1.060639613157895</v>
       </c>
       <c r="G22">
-        <v>1.018693201383843</v>
+        <v>0.9122380642105262</v>
       </c>
       <c r="H22">
-        <v>1.006931797808952</v>
+        <v>1.079395177368422</v>
       </c>
       <c r="I22">
-        <v>0.9638230075216269</v>
+        <v>1.060639613157895</v>
       </c>
       <c r="J22">
-        <v>0.9906027232314597</v>
+        <v>1.041880041578948</v>
       </c>
       <c r="K22">
-        <v>0.9638230075216269</v>
+        <v>1.060639613157895</v>
       </c>
       <c r="L22">
-        <v>1.001623181772805</v>
+        <v>1.034160047368421</v>
       </c>
       <c r="M22">
-        <v>1.023401780488259</v>
+        <v>0.9273467060526317</v>
       </c>
       <c r="N22">
-        <v>1.023401780488259</v>
+        <v>0.9273467060526317</v>
       </c>
       <c r="O22">
-        <v>1.02183225412012</v>
+        <v>0.9223104921052632</v>
       </c>
       <c r="P22">
-        <v>1.003542189499381</v>
+        <v>0.9717776750877194</v>
       </c>
       <c r="Q22">
-        <v>1.003542189499382</v>
+        <v>0.9717776750877194</v>
       </c>
       <c r="R22">
-        <v>0.9936123940049429</v>
+        <v>0.9939931596052632</v>
       </c>
       <c r="S22">
-        <v>0.9936123940049429</v>
+        <v>0.9939931596052632</v>
       </c>
       <c r="T22">
-        <v>1.004475715153733</v>
+        <v>0.9914743847368422</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.082245204613516</v>
+        <v>1.087595502107483</v>
       </c>
       <c r="D23">
-        <v>0.9486878086816647</v>
+        <v>0.9485544529570193</v>
       </c>
       <c r="E23">
-        <v>1.082245204613516</v>
+        <v>1.087595502107483</v>
       </c>
       <c r="F23">
-        <v>1.034301150042558</v>
+        <v>1.032618269452672</v>
       </c>
       <c r="G23">
-        <v>1.065714757544415</v>
+        <v>1.065495944084504</v>
       </c>
       <c r="H23">
-        <v>0.8459591511100624</v>
+        <v>0.8506261723366549</v>
       </c>
       <c r="I23">
-        <v>1.034301150042558</v>
+        <v>1.032618269452672</v>
       </c>
       <c r="J23">
-        <v>0.973647973206703</v>
+        <v>0.9730628495404513</v>
       </c>
       <c r="K23">
-        <v>1.034301150042558</v>
+        <v>1.032618269452672</v>
       </c>
       <c r="L23">
-        <v>0.9486878086816647</v>
+        <v>0.9485544529570193</v>
       </c>
       <c r="M23">
-        <v>1.01546650664759</v>
+        <v>1.018074977532251</v>
       </c>
       <c r="N23">
-        <v>1.01546650664759</v>
+        <v>1.018074977532251</v>
       </c>
       <c r="O23">
-        <v>1.032215923613198</v>
+        <v>1.033881966383002</v>
       </c>
       <c r="P23">
-        <v>1.021744721112579</v>
+        <v>1.022922741505725</v>
       </c>
       <c r="Q23">
-        <v>1.02174472111258</v>
+        <v>1.022922741505725</v>
       </c>
       <c r="R23">
-        <v>1.024883828345074</v>
+        <v>1.025346623492462</v>
       </c>
       <c r="S23">
-        <v>1.024883828345074</v>
+        <v>1.025346623492462</v>
       </c>
       <c r="T23">
-        <v>0.9917593408664866</v>
+        <v>0.9929921984131306</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.050095508034032</v>
+        <v>1.045180379203713</v>
       </c>
       <c r="D24">
-        <v>1.000643325205356</v>
+        <v>1.001623181772805</v>
       </c>
       <c r="E24">
-        <v>1.050095508034032</v>
+        <v>1.045180379203713</v>
       </c>
       <c r="F24">
-        <v>0.9645566276542581</v>
+        <v>0.9638230075216269</v>
       </c>
       <c r="G24">
-        <v>1.018276206250649</v>
+        <v>1.018693201383843</v>
       </c>
       <c r="H24">
-        <v>1.009428476563701</v>
+        <v>1.006931797808952</v>
       </c>
       <c r="I24">
-        <v>0.9645566276542581</v>
+        <v>0.9638230075216269</v>
       </c>
       <c r="J24">
-        <v>0.9901224210328134</v>
+        <v>0.9906027232314597</v>
       </c>
       <c r="K24">
-        <v>0.9645566276542581</v>
+        <v>0.9638230075216269</v>
       </c>
       <c r="L24">
-        <v>1.000643325205356</v>
+        <v>1.001623181772805</v>
       </c>
       <c r="M24">
-        <v>1.025369416619694</v>
+        <v>1.023401780488259</v>
       </c>
       <c r="N24">
-        <v>1.025369416619694</v>
+        <v>1.023401780488259</v>
       </c>
       <c r="O24">
-        <v>1.023005013163346</v>
+        <v>1.02183225412012</v>
       </c>
       <c r="P24">
-        <v>1.005098486964549</v>
+        <v>1.003542189499381</v>
       </c>
       <c r="Q24">
-        <v>1.005098486964549</v>
+        <v>1.003542189499382</v>
       </c>
       <c r="R24">
-        <v>0.9949630221369763</v>
+        <v>0.9936123940049429</v>
       </c>
       <c r="S24">
-        <v>0.9949630221369763</v>
+        <v>0.9936123940049429</v>
       </c>
       <c r="T24">
-        <v>1.005520427456802</v>
+        <v>1.004475715153733</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.076899843125144</v>
+        <v>1.082245204613516</v>
       </c>
       <c r="D25">
-        <v>0.9488217601893472</v>
+        <v>0.9486878086816647</v>
       </c>
       <c r="E25">
-        <v>1.076899843125144</v>
+        <v>1.082245204613516</v>
       </c>
       <c r="F25">
-        <v>1.03597892618537</v>
+        <v>1.034301150042558</v>
       </c>
       <c r="G25">
-        <v>1.065935901620291</v>
+        <v>1.065714757544415</v>
       </c>
       <c r="H25">
-        <v>0.8412930986968493</v>
+        <v>0.8459591511100624</v>
       </c>
       <c r="I25">
-        <v>1.03597892618537</v>
+        <v>1.034301150042558</v>
       </c>
       <c r="J25">
-        <v>0.974232019077777</v>
+        <v>0.973647973206703</v>
       </c>
       <c r="K25">
-        <v>1.03597892618537</v>
+        <v>1.034301150042558</v>
       </c>
       <c r="L25">
-        <v>0.9488217601893472</v>
+        <v>0.9486878086816647</v>
       </c>
       <c r="M25">
-        <v>1.012860801657245</v>
+        <v>1.01546650664759</v>
       </c>
       <c r="N25">
-        <v>1.012860801657245</v>
+        <v>1.01546650664759</v>
       </c>
       <c r="O25">
-        <v>1.030552501644927</v>
+        <v>1.032215923613198</v>
       </c>
       <c r="P25">
-        <v>1.02056684316662</v>
+        <v>1.021744721112579</v>
       </c>
       <c r="Q25">
-        <v>1.02056684316662</v>
+        <v>1.02174472111258</v>
       </c>
       <c r="R25">
-        <v>1.024419863921308</v>
+        <v>1.024883828345074</v>
       </c>
       <c r="S25">
-        <v>1.024419863921308</v>
+        <v>1.024883828345074</v>
       </c>
       <c r="T25">
-        <v>0.9905269248157964</v>
+        <v>0.9917593408664866</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.055012052863915</v>
+        <v>1.050095508034032</v>
       </c>
       <c r="D26">
-        <v>0.9996622106005547</v>
+        <v>1.000643325205356</v>
       </c>
       <c r="E26">
-        <v>1.055012052863915</v>
+        <v>1.050095508034032</v>
       </c>
       <c r="F26">
-        <v>0.9652922097676043</v>
+        <v>0.9645566276542581</v>
       </c>
       <c r="G26">
-        <v>1.017859587093438</v>
+        <v>1.018276206250649</v>
       </c>
       <c r="H26">
-        <v>1.011923294486023</v>
+        <v>1.009428476563701</v>
       </c>
       <c r="I26">
-        <v>0.9652922097676043</v>
+        <v>0.9645566276542581</v>
       </c>
       <c r="J26">
-        <v>0.9896417998685823</v>
+        <v>0.9901224210328134</v>
       </c>
       <c r="K26">
-        <v>0.9652922097676043</v>
+        <v>0.9645566276542581</v>
       </c>
       <c r="L26">
-        <v>0.9996622106005547</v>
+        <v>1.000643325205356</v>
       </c>
       <c r="M26">
-        <v>1.027337131732235</v>
+        <v>1.025369416619694</v>
       </c>
       <c r="N26">
-        <v>1.027337131732235</v>
+        <v>1.025369416619694</v>
       </c>
       <c r="O26">
-        <v>1.024177950185969</v>
+        <v>1.023005013163346</v>
       </c>
       <c r="P26">
-        <v>1.006655491077358</v>
+        <v>1.005098486964549</v>
       </c>
       <c r="Q26">
-        <v>1.006655491077358</v>
+        <v>1.005098486964549</v>
       </c>
       <c r="R26">
-        <v>0.9963146707499196</v>
+        <v>0.9949630221369763</v>
       </c>
       <c r="S26">
-        <v>0.9963146707499196</v>
+        <v>0.9949630221369763</v>
       </c>
       <c r="T26">
-        <v>1.006565192446686</v>
+        <v>1.005520427456802</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.935426032538171</v>
+        <v>1.076899843125144</v>
       </c>
       <c r="D27">
-        <v>1.013298664249863</v>
+        <v>0.9488217601893472</v>
       </c>
       <c r="E27">
-        <v>0.935426032538171</v>
+        <v>1.076899843125144</v>
       </c>
       <c r="F27">
-        <v>1.018200347124827</v>
+        <v>1.03597892618537</v>
       </c>
       <c r="G27">
-        <v>0.9695990295966833</v>
+        <v>1.065935901620291</v>
       </c>
       <c r="H27">
-        <v>1.029719647785825</v>
+        <v>0.8412930986968493</v>
       </c>
       <c r="I27">
-        <v>1.018200347124827</v>
+        <v>1.03597892618537</v>
       </c>
       <c r="J27">
-        <v>1.014727730634603</v>
+        <v>0.974232019077777</v>
       </c>
       <c r="K27">
-        <v>1.018200347124827</v>
+        <v>1.03597892618537</v>
       </c>
       <c r="L27">
-        <v>1.013298664249863</v>
+        <v>0.9488217601893472</v>
       </c>
       <c r="M27">
-        <v>0.9743623483940171</v>
+        <v>1.012860801657245</v>
       </c>
       <c r="N27">
-        <v>0.9743623483940171</v>
+        <v>1.012860801657245</v>
       </c>
       <c r="O27">
-        <v>0.9727745754615725</v>
+        <v>1.030552501644927</v>
       </c>
       <c r="P27">
-        <v>0.9889750146376203</v>
+        <v>1.02056684316662</v>
       </c>
       <c r="Q27">
-        <v>0.9889750146376203</v>
+        <v>1.02056684316662</v>
       </c>
       <c r="R27">
-        <v>0.9962813477594219</v>
+        <v>1.024419863921308</v>
       </c>
       <c r="S27">
-        <v>0.9962813477594219</v>
+        <v>1.024419863921308</v>
       </c>
       <c r="T27">
-        <v>0.996828575321662</v>
+        <v>0.9905269248157964</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.003106022646728</v>
+        <v>1.055012052863915</v>
       </c>
       <c r="D28">
-        <v>0.9979307210536599</v>
+        <v>0.9996622106005547</v>
       </c>
       <c r="E28">
-        <v>1.003106022646728</v>
+        <v>1.055012052863915</v>
       </c>
       <c r="F28">
-        <v>1.000379941198059</v>
+        <v>0.9652922097676043</v>
       </c>
       <c r="G28">
-        <v>1.005220542540974</v>
+        <v>1.017859587093438</v>
       </c>
       <c r="H28">
-        <v>0.98607053483532</v>
+        <v>1.011923294486023</v>
       </c>
       <c r="I28">
-        <v>1.000379941198059</v>
+        <v>0.9652922097676043</v>
       </c>
       <c r="J28">
-        <v>0.9986447830971864</v>
+        <v>0.9896417998685823</v>
       </c>
       <c r="K28">
-        <v>1.000379941198059</v>
+        <v>0.9652922097676043</v>
       </c>
       <c r="L28">
-        <v>0.9979307210536599</v>
+        <v>0.9996622106005547</v>
       </c>
       <c r="M28">
-        <v>1.000518371850194</v>
+        <v>1.027337131732235</v>
       </c>
       <c r="N28">
-        <v>1.000518371850194</v>
+        <v>1.027337131732235</v>
       </c>
       <c r="O28">
-        <v>1.002085762080454</v>
+        <v>1.024177950185969</v>
       </c>
       <c r="P28">
-        <v>1.000472228299483</v>
+        <v>1.006655491077358</v>
       </c>
       <c r="Q28">
-        <v>1.000472228299482</v>
+        <v>1.006655491077358</v>
       </c>
       <c r="R28">
-        <v>1.000449156524127</v>
+        <v>0.9963146707499196</v>
       </c>
       <c r="S28">
-        <v>1.000449156524127</v>
+        <v>0.9963146707499196</v>
       </c>
       <c r="T28">
-        <v>0.9985587575619879</v>
+        <v>1.006565192446686</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.935426032538171</v>
+      </c>
+      <c r="D29">
+        <v>1.013298664249863</v>
+      </c>
+      <c r="E29">
+        <v>0.935426032538171</v>
+      </c>
+      <c r="F29">
+        <v>1.018200347124827</v>
+      </c>
+      <c r="G29">
+        <v>0.9695990295966833</v>
+      </c>
+      <c r="H29">
+        <v>1.029719647785825</v>
+      </c>
+      <c r="I29">
+        <v>1.018200347124827</v>
+      </c>
+      <c r="J29">
+        <v>1.014727730634603</v>
+      </c>
+      <c r="K29">
+        <v>1.018200347124827</v>
+      </c>
+      <c r="L29">
+        <v>1.013298664249863</v>
+      </c>
+      <c r="M29">
+        <v>0.9743623483940171</v>
+      </c>
+      <c r="N29">
+        <v>0.9743623483940171</v>
+      </c>
+      <c r="O29">
+        <v>0.9727745754615725</v>
+      </c>
+      <c r="P29">
+        <v>0.9889750146376203</v>
+      </c>
+      <c r="Q29">
+        <v>0.9889750146376203</v>
+      </c>
+      <c r="R29">
+        <v>0.9962813477594219</v>
+      </c>
+      <c r="S29">
+        <v>0.9962813477594219</v>
+      </c>
+      <c r="T29">
+        <v>0.996828575321662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.003106022646728</v>
+      </c>
+      <c r="D30">
+        <v>0.9979307210536599</v>
+      </c>
+      <c r="E30">
+        <v>1.003106022646728</v>
+      </c>
+      <c r="F30">
+        <v>1.000379941198059</v>
+      </c>
+      <c r="G30">
+        <v>1.005220542540974</v>
+      </c>
+      <c r="H30">
+        <v>0.98607053483532</v>
+      </c>
+      <c r="I30">
+        <v>1.000379941198059</v>
+      </c>
+      <c r="J30">
+        <v>0.9986447830971864</v>
+      </c>
+      <c r="K30">
+        <v>1.000379941198059</v>
+      </c>
+      <c r="L30">
+        <v>0.9979307210536599</v>
+      </c>
+      <c r="M30">
+        <v>1.000518371850194</v>
+      </c>
+      <c r="N30">
+        <v>1.000518371850194</v>
+      </c>
+      <c r="O30">
+        <v>1.002085762080454</v>
+      </c>
+      <c r="P30">
+        <v>1.000472228299483</v>
+      </c>
+      <c r="Q30">
+        <v>1.000472228299482</v>
+      </c>
+      <c r="R30">
+        <v>1.000449156524127</v>
+      </c>
+      <c r="S30">
+        <v>1.000449156524127</v>
+      </c>
+      <c r="T30">
+        <v>0.9985587575619879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.192692330199292</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9483480554372288</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.192692330199292</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9660510613058335</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.097947064891931</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.8790483338908635</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9660510613058335</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9535092922679111</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9660510613058335</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9483480554372288</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.070520192818261</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.070520192818261</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.079662483509484</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.035697148980785</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.035697148980785</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.018285627062047</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.018285627062047</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.006266022998843</v>
       </c>
     </row>
